--- a/AutoDo/仕様.xlsx
+++ b/AutoDo/仕様.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="11205" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="11205" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="ER图" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="150">
   <si>
     <t>edp_no</t>
   </si>
@@ -717,6 +718,34 @@
   </si>
   <si>
     <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Table name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>column_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DIV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Width</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Height</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Top</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Left</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1021,155 +1050,155 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1183,6 +1212,177 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="200025" y="209550"/>
+          <a:ext cx="1266825" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="1219200"/>
+          <a:ext cx="1266825" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="カギ線コネクタ 4"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1466850" y="914400"/>
+          <a:ext cx="819150" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1484,371 +1684,371 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="50"/>
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
     </row>
     <row r="5" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
     </row>
     <row r="6" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
     </row>
     <row r="7" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
     </row>
     <row r="8" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
     </row>
     <row r="9" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
     </row>
     <row r="10" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="50"/>
+      <c r="F10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4" t="s">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4" t="s">
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
     </row>
     <row r="11" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4" t="s">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
     </row>
     <row r="12" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4" t="s">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
     </row>
     <row r="13" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4" t="s">
+      <c r="F13" s="4"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
     </row>
     <row r="14" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4" t="s">
+      <c r="F14" s="4"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4" t="s">
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
     </row>
     <row r="15" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4" t="s">
+      <c r="F15" s="4"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4" t="s">
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
     </row>
     <row r="16" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4" t="s">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4" t="s">
+      <c r="J16" s="2"/>
+      <c r="K16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4" t="s">
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
     </row>
     <row r="17" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
     </row>
     <row r="18" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4" t="s">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
     </row>
     <row r="19" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4" t="s">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
     </row>
     <row r="20" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4" t="s">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1871,208 +2071,208 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="7" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="8" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2086,1332 +2286,1332 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="V45" sqref="V45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="1.25" style="12" customWidth="1"/>
-    <col min="4" max="4" width="3" style="12" customWidth="1"/>
-    <col min="5" max="8" width="4.5" style="12"/>
-    <col min="9" max="9" width="8.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="4.5" style="12"/>
+    <col min="1" max="3" width="1.25" style="10" customWidth="1"/>
+    <col min="4" max="4" width="3" style="10" customWidth="1"/>
+    <col min="5" max="8" width="4.5" style="10"/>
+    <col min="9" max="9" width="8.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="4.5" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="15"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="13"/>
     </row>
     <row r="7" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="18"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="16"/>
     </row>
     <row r="8" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="19" t="s">
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="16"/>
     </row>
     <row r="9" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="19" t="s">
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="16"/>
     </row>
     <row r="10" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="18"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="16"/>
     </row>
     <row r="11" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="18"/>
-      <c r="V11" s="12">
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="16"/>
+      <c r="V11" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="27"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="25"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="30"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="E15" s="31"/>
-      <c r="F15" s="32" t="s">
+      <c r="E15" s="29"/>
+      <c r="F15" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="33"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="E16" s="34"/>
-      <c r="F16" s="35" t="s">
+      <c r="E16" s="32"/>
+      <c r="F16" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="36"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="34"/>
     </row>
     <row r="17" spans="5:37" x14ac:dyDescent="0.15">
-      <c r="E17" s="34"/>
-      <c r="F17" s="35" t="s">
+      <c r="E17" s="32"/>
+      <c r="F17" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="36"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="34"/>
     </row>
     <row r="18" spans="5:37" x14ac:dyDescent="0.15">
-      <c r="E18" s="34"/>
-      <c r="F18" s="35" t="s">
+      <c r="E18" s="32"/>
+      <c r="F18" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="35"/>
-      <c r="H18" s="36"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="34"/>
     </row>
     <row r="20" spans="5:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="5:37" x14ac:dyDescent="0.15">
-      <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="14"/>
-      <c r="Z21" s="14"/>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="14"/>
-      <c r="AC21" s="14"/>
-      <c r="AD21" s="14"/>
-      <c r="AE21" s="14"/>
-      <c r="AF21" s="14"/>
-      <c r="AG21" s="14"/>
-      <c r="AH21" s="14" t="s">
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="12"/>
+      <c r="AH21" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AI21" s="14"/>
-      <c r="AJ21" s="14"/>
-      <c r="AK21" s="15"/>
+      <c r="AI21" s="12"/>
+      <c r="AJ21" s="12"/>
+      <c r="AK21" s="13"/>
     </row>
     <row r="22" spans="5:37" x14ac:dyDescent="0.15">
-      <c r="E22" s="16"/>
-      <c r="F22" s="17" t="s">
+      <c r="E22" s="14"/>
+      <c r="F22" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="17"/>
-      <c r="AA22" s="17"/>
-      <c r="AB22" s="17"/>
-      <c r="AC22" s="17"/>
-      <c r="AD22" s="17"/>
-      <c r="AE22" s="17"/>
-      <c r="AF22" s="17"/>
-      <c r="AG22" s="17"/>
-      <c r="AH22" s="17"/>
-      <c r="AI22" s="17"/>
-      <c r="AJ22" s="17"/>
-      <c r="AK22" s="18"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="15"/>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="15"/>
+      <c r="AF22" s="15"/>
+      <c r="AG22" s="15"/>
+      <c r="AH22" s="15"/>
+      <c r="AI22" s="15"/>
+      <c r="AJ22" s="15"/>
+      <c r="AK22" s="16"/>
     </row>
     <row r="23" spans="5:37" x14ac:dyDescent="0.15">
-      <c r="E23" s="16"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="38" t="s">
+      <c r="E23" s="14"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="J23" s="39"/>
-      <c r="K23" s="38" t="s">
+      <c r="J23" s="37"/>
+      <c r="K23" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
-      <c r="W23" s="39"/>
-      <c r="X23" s="39"/>
-      <c r="Y23" s="39"/>
-      <c r="Z23" s="39"/>
-      <c r="AA23" s="39"/>
-      <c r="AB23" s="39"/>
-      <c r="AC23" s="39"/>
-      <c r="AD23" s="39"/>
-      <c r="AE23" s="39"/>
-      <c r="AF23" s="39"/>
-      <c r="AG23" s="39"/>
-      <c r="AH23" s="39"/>
-      <c r="AI23" s="40"/>
-      <c r="AJ23" s="17"/>
-      <c r="AK23" s="18"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="37"/>
+      <c r="Y23" s="37"/>
+      <c r="Z23" s="37"/>
+      <c r="AA23" s="37"/>
+      <c r="AB23" s="37"/>
+      <c r="AC23" s="37"/>
+      <c r="AD23" s="37"/>
+      <c r="AE23" s="37"/>
+      <c r="AF23" s="37"/>
+      <c r="AG23" s="37"/>
+      <c r="AH23" s="37"/>
+      <c r="AI23" s="38"/>
+      <c r="AJ23" s="15"/>
+      <c r="AK23" s="16"/>
     </row>
     <row r="24" spans="5:37" x14ac:dyDescent="0.15">
-      <c r="E24" s="16"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="41" t="s">
+      <c r="E24" s="14"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="I24" s="34">
+      <c r="I24" s="32">
         <v>100000</v>
       </c>
-      <c r="J24" s="35"/>
-      <c r="K24" s="34" t="s">
+      <c r="J24" s="33"/>
+      <c r="K24" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="35"/>
-      <c r="Y24" s="35"/>
-      <c r="Z24" s="35"/>
-      <c r="AA24" s="35"/>
-      <c r="AB24" s="35"/>
-      <c r="AC24" s="35"/>
-      <c r="AD24" s="35"/>
-      <c r="AE24" s="35"/>
-      <c r="AF24" s="35"/>
-      <c r="AG24" s="35"/>
-      <c r="AH24" s="35"/>
-      <c r="AI24" s="36"/>
-      <c r="AJ24" s="17"/>
-      <c r="AK24" s="18"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="33"/>
+      <c r="AA24" s="33"/>
+      <c r="AB24" s="33"/>
+      <c r="AC24" s="33"/>
+      <c r="AD24" s="33"/>
+      <c r="AE24" s="33"/>
+      <c r="AF24" s="33"/>
+      <c r="AG24" s="33"/>
+      <c r="AH24" s="33"/>
+      <c r="AI24" s="34"/>
+      <c r="AJ24" s="15"/>
+      <c r="AK24" s="16"/>
     </row>
     <row r="25" spans="5:37" x14ac:dyDescent="0.15">
-      <c r="E25" s="16"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="41" t="s">
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="I25" s="34">
+      <c r="I25" s="32">
         <v>100001</v>
       </c>
-      <c r="J25" s="35"/>
-      <c r="K25" s="34" t="s">
+      <c r="J25" s="33"/>
+      <c r="K25" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="35"/>
-      <c r="Y25" s="35"/>
-      <c r="Z25" s="35"/>
-      <c r="AA25" s="35"/>
-      <c r="AB25" s="35"/>
-      <c r="AC25" s="35"/>
-      <c r="AD25" s="35"/>
-      <c r="AE25" s="35"/>
-      <c r="AF25" s="35"/>
-      <c r="AG25" s="35"/>
-      <c r="AH25" s="35"/>
-      <c r="AI25" s="36"/>
-      <c r="AJ25" s="17"/>
-      <c r="AK25" s="18"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="33"/>
+      <c r="Y25" s="33"/>
+      <c r="Z25" s="33"/>
+      <c r="AA25" s="33"/>
+      <c r="AB25" s="33"/>
+      <c r="AC25" s="33"/>
+      <c r="AD25" s="33"/>
+      <c r="AE25" s="33"/>
+      <c r="AF25" s="33"/>
+      <c r="AG25" s="33"/>
+      <c r="AH25" s="33"/>
+      <c r="AI25" s="34"/>
+      <c r="AJ25" s="15"/>
+      <c r="AK25" s="16"/>
     </row>
     <row r="26" spans="5:37" x14ac:dyDescent="0.15">
-      <c r="E26" s="16"/>
-      <c r="F26" s="17" t="s">
+      <c r="E26" s="14"/>
+      <c r="F26" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="17"/>
-      <c r="AA26" s="17"/>
-      <c r="AB26" s="17"/>
-      <c r="AC26" s="17"/>
-      <c r="AD26" s="17"/>
-      <c r="AE26" s="17"/>
-      <c r="AF26" s="17"/>
-      <c r="AG26" s="17"/>
-      <c r="AH26" s="17"/>
-      <c r="AI26" s="17"/>
-      <c r="AJ26" s="17"/>
-      <c r="AK26" s="18"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="15"/>
+      <c r="AF26" s="15"/>
+      <c r="AG26" s="15"/>
+      <c r="AH26" s="15"/>
+      <c r="AI26" s="15"/>
+      <c r="AJ26" s="15"/>
+      <c r="AK26" s="16"/>
     </row>
     <row r="27" spans="5:37" x14ac:dyDescent="0.15">
-      <c r="E27" s="16"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="38" t="s">
+      <c r="E27" s="14"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="J27" s="39"/>
-      <c r="K27" s="38" t="s">
+      <c r="J27" s="37"/>
+      <c r="K27" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39"/>
-      <c r="V27" s="39"/>
-      <c r="W27" s="39"/>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="39"/>
-      <c r="Z27" s="39"/>
-      <c r="AA27" s="39"/>
-      <c r="AB27" s="39"/>
-      <c r="AC27" s="39"/>
-      <c r="AD27" s="39"/>
-      <c r="AE27" s="39"/>
-      <c r="AF27" s="39"/>
-      <c r="AG27" s="39"/>
-      <c r="AH27" s="39"/>
-      <c r="AI27" s="40"/>
-      <c r="AJ27" s="17"/>
-      <c r="AK27" s="18"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="37"/>
+      <c r="AA27" s="37"/>
+      <c r="AB27" s="37"/>
+      <c r="AC27" s="37"/>
+      <c r="AD27" s="37"/>
+      <c r="AE27" s="37"/>
+      <c r="AF27" s="37"/>
+      <c r="AG27" s="37"/>
+      <c r="AH27" s="37"/>
+      <c r="AI27" s="38"/>
+      <c r="AJ27" s="15"/>
+      <c r="AK27" s="16"/>
     </row>
     <row r="28" spans="5:37" x14ac:dyDescent="0.15">
-      <c r="E28" s="16"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="41" t="s">
+      <c r="E28" s="14"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="I28" s="34" t="s">
+      <c r="I28" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="J28" s="35"/>
-      <c r="K28" s="34" t="s">
+      <c r="J28" s="33"/>
+      <c r="K28" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="35"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="35"/>
-      <c r="Y28" s="35"/>
-      <c r="Z28" s="35"/>
-      <c r="AA28" s="35"/>
-      <c r="AB28" s="35"/>
-      <c r="AC28" s="35"/>
-      <c r="AD28" s="35"/>
-      <c r="AE28" s="35"/>
-      <c r="AF28" s="35"/>
-      <c r="AG28" s="35"/>
-      <c r="AH28" s="35"/>
-      <c r="AI28" s="36"/>
-      <c r="AJ28" s="17"/>
-      <c r="AK28" s="18"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="33"/>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="33"/>
+      <c r="Z28" s="33"/>
+      <c r="AA28" s="33"/>
+      <c r="AB28" s="33"/>
+      <c r="AC28" s="33"/>
+      <c r="AD28" s="33"/>
+      <c r="AE28" s="33"/>
+      <c r="AF28" s="33"/>
+      <c r="AG28" s="33"/>
+      <c r="AH28" s="33"/>
+      <c r="AI28" s="34"/>
+      <c r="AJ28" s="15"/>
+      <c r="AK28" s="16"/>
     </row>
     <row r="29" spans="5:37" x14ac:dyDescent="0.15">
-      <c r="E29" s="16"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="41" t="s">
+      <c r="E29" s="14"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="I29" s="34">
+      <c r="I29" s="32">
         <v>100001</v>
       </c>
-      <c r="J29" s="35"/>
-      <c r="K29" s="34" t="s">
+      <c r="J29" s="33"/>
+      <c r="K29" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="35"/>
-      <c r="S29" s="35"/>
-      <c r="T29" s="35"/>
-      <c r="U29" s="35"/>
-      <c r="V29" s="35"/>
-      <c r="W29" s="35"/>
-      <c r="X29" s="35"/>
-      <c r="Y29" s="35"/>
-      <c r="Z29" s="35"/>
-      <c r="AA29" s="35"/>
-      <c r="AB29" s="35"/>
-      <c r="AC29" s="35"/>
-      <c r="AD29" s="35"/>
-      <c r="AE29" s="35"/>
-      <c r="AF29" s="35"/>
-      <c r="AG29" s="35"/>
-      <c r="AH29" s="35"/>
-      <c r="AI29" s="36"/>
-      <c r="AJ29" s="17"/>
-      <c r="AK29" s="18"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="33"/>
+      <c r="X29" s="33"/>
+      <c r="Y29" s="33"/>
+      <c r="Z29" s="33"/>
+      <c r="AA29" s="33"/>
+      <c r="AB29" s="33"/>
+      <c r="AC29" s="33"/>
+      <c r="AD29" s="33"/>
+      <c r="AE29" s="33"/>
+      <c r="AF29" s="33"/>
+      <c r="AG29" s="33"/>
+      <c r="AH29" s="33"/>
+      <c r="AI29" s="34"/>
+      <c r="AJ29" s="15"/>
+      <c r="AK29" s="16"/>
     </row>
     <row r="30" spans="5:37" x14ac:dyDescent="0.15">
-      <c r="E30" s="16"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
-      <c r="Z30" s="17"/>
-      <c r="AA30" s="17"/>
-      <c r="AB30" s="17"/>
-      <c r="AC30" s="17"/>
-      <c r="AD30" s="17"/>
-      <c r="AE30" s="17"/>
-      <c r="AF30" s="17"/>
-      <c r="AG30" s="17"/>
-      <c r="AH30" s="17"/>
-      <c r="AI30" s="17"/>
-      <c r="AJ30" s="17"/>
-      <c r="AK30" s="18"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="15"/>
+      <c r="AB30" s="15"/>
+      <c r="AC30" s="15"/>
+      <c r="AD30" s="15"/>
+      <c r="AE30" s="15"/>
+      <c r="AF30" s="15"/>
+      <c r="AG30" s="15"/>
+      <c r="AH30" s="15"/>
+      <c r="AI30" s="15"/>
+      <c r="AJ30" s="15"/>
+      <c r="AK30" s="16"/>
     </row>
     <row r="31" spans="5:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E31" s="25"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="26"/>
-      <c r="S31" s="26"/>
-      <c r="T31" s="26"/>
-      <c r="U31" s="26"/>
-      <c r="V31" s="26"/>
-      <c r="W31" s="26"/>
-      <c r="X31" s="26"/>
-      <c r="Y31" s="26"/>
-      <c r="Z31" s="26"/>
-      <c r="AA31" s="26"/>
-      <c r="AB31" s="26"/>
-      <c r="AC31" s="26"/>
-      <c r="AD31" s="26"/>
-      <c r="AE31" s="26"/>
-      <c r="AF31" s="26"/>
-      <c r="AG31" s="26"/>
-      <c r="AH31" s="26"/>
-      <c r="AI31" s="26"/>
-      <c r="AJ31" s="26"/>
-      <c r="AK31" s="27"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="24"/>
+      <c r="V31" s="24"/>
+      <c r="W31" s="24"/>
+      <c r="X31" s="24"/>
+      <c r="Y31" s="24"/>
+      <c r="Z31" s="24"/>
+      <c r="AA31" s="24"/>
+      <c r="AB31" s="24"/>
+      <c r="AC31" s="24"/>
+      <c r="AD31" s="24"/>
+      <c r="AE31" s="24"/>
+      <c r="AF31" s="24"/>
+      <c r="AG31" s="24"/>
+      <c r="AH31" s="24"/>
+      <c r="AI31" s="24"/>
+      <c r="AJ31" s="24"/>
+      <c r="AK31" s="25"/>
     </row>
     <row r="33" spans="5:19" x14ac:dyDescent="0.15">
-      <c r="E33" s="28" t="s">
+      <c r="E33" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="30"/>
-      <c r="M33" s="28" t="s">
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="28"/>
+      <c r="M33" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="30"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="28"/>
     </row>
     <row r="34" spans="5:19" x14ac:dyDescent="0.15">
-      <c r="E34" s="31"/>
-      <c r="F34" s="32" t="s">
+      <c r="E34" s="29"/>
+      <c r="F34" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="G34" s="32"/>
-      <c r="H34" s="33"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="32" t="s">
+      <c r="G34" s="30"/>
+      <c r="H34" s="31"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="O34" s="32"/>
-      <c r="P34" s="33"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="31"/>
     </row>
     <row r="35" spans="5:19" x14ac:dyDescent="0.15">
-      <c r="E35" s="34"/>
-      <c r="F35" s="35" t="s">
+      <c r="E35" s="32"/>
+      <c r="F35" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="G35" s="35"/>
-      <c r="H35" s="36"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="43" t="s">
+      <c r="G35" s="33"/>
+      <c r="H35" s="34"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="O35" s="43"/>
-      <c r="P35" s="44"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="42"/>
     </row>
     <row r="36" spans="5:19" x14ac:dyDescent="0.15">
-      <c r="E36" s="34"/>
-      <c r="F36" s="35" t="s">
+      <c r="E36" s="32"/>
+      <c r="F36" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="G36" s="35"/>
-      <c r="H36" s="36"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="43" t="s">
+      <c r="G36" s="33"/>
+      <c r="H36" s="34"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="O36" s="43"/>
-      <c r="P36" s="44"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="42"/>
     </row>
     <row r="37" spans="5:19" x14ac:dyDescent="0.15">
-      <c r="E37" s="34"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="36"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="43" t="s">
+      <c r="E37" s="32"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="34"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="O37" s="43"/>
-      <c r="P37" s="44"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="42"/>
     </row>
     <row r="40" spans="5:19" x14ac:dyDescent="0.15">
-      <c r="E40" s="28" t="s">
+      <c r="E40" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="30"/>
-      <c r="P40" s="28" t="s">
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="28"/>
+      <c r="P40" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="30"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="28"/>
     </row>
     <row r="41" spans="5:19" x14ac:dyDescent="0.15">
-      <c r="E41" s="31"/>
-      <c r="F41" s="32" t="s">
+      <c r="E41" s="29"/>
+      <c r="F41" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="G41" s="32"/>
-      <c r="H41" s="33"/>
-      <c r="P41" s="31"/>
-      <c r="Q41" s="32" t="s">
+      <c r="G41" s="30"/>
+      <c r="H41" s="31"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="R41" s="32"/>
-      <c r="S41" s="33"/>
+      <c r="R41" s="30"/>
+      <c r="S41" s="31"/>
     </row>
     <row r="42" spans="5:19" x14ac:dyDescent="0.15">
-      <c r="E42" s="31"/>
-      <c r="F42" s="32" t="s">
+      <c r="E42" s="29"/>
+      <c r="F42" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="G42" s="32"/>
-      <c r="H42" s="33"/>
-      <c r="P42" s="31"/>
-      <c r="Q42" s="32" t="s">
+      <c r="G42" s="30"/>
+      <c r="H42" s="31"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="R42" s="32"/>
-      <c r="S42" s="33"/>
+      <c r="R42" s="30"/>
+      <c r="S42" s="31"/>
     </row>
     <row r="43" spans="5:19" x14ac:dyDescent="0.15">
-      <c r="E43" s="34"/>
-      <c r="F43" s="35" t="s">
+      <c r="E43" s="32"/>
+      <c r="F43" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="G43" s="35"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="12" t="s">
+      <c r="G43" s="33"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="P43" s="31"/>
-      <c r="Q43" s="32" t="s">
+      <c r="P43" s="29"/>
+      <c r="Q43" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="R43" s="32"/>
-      <c r="S43" s="33"/>
+      <c r="R43" s="30"/>
+      <c r="S43" s="31"/>
     </row>
     <row r="44" spans="5:19" x14ac:dyDescent="0.15">
-      <c r="E44" s="34"/>
-      <c r="F44" s="35" t="s">
+      <c r="E44" s="32"/>
+      <c r="F44" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="G44" s="35"/>
-      <c r="H44" s="36"/>
-      <c r="P44" s="31"/>
-      <c r="Q44" s="32" t="s">
+      <c r="G44" s="33"/>
+      <c r="H44" s="34"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="R44" s="32"/>
-      <c r="S44" s="33"/>
+      <c r="R44" s="30"/>
+      <c r="S44" s="31"/>
     </row>
     <row r="45" spans="5:19" x14ac:dyDescent="0.15">
-      <c r="E45" s="34"/>
-      <c r="F45" s="35" t="s">
+      <c r="E45" s="32"/>
+      <c r="F45" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="G45" s="35"/>
-      <c r="H45" s="36"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="34"/>
     </row>
     <row r="46" spans="5:19" x14ac:dyDescent="0.15">
-      <c r="E46" s="34"/>
-      <c r="F46" s="35" t="s">
+      <c r="E46" s="32"/>
+      <c r="F46" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="G46" s="35"/>
-      <c r="H46" s="36"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="34"/>
     </row>
     <row r="47" spans="5:19" x14ac:dyDescent="0.15">
-      <c r="E47" s="34"/>
-      <c r="F47" s="35" t="s">
+      <c r="E47" s="32"/>
+      <c r="F47" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="G47" s="35"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="12" t="s">
+      <c r="G47" s="33"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="10" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="48" spans="5:19" x14ac:dyDescent="0.15">
-      <c r="E48" s="34"/>
-      <c r="F48" s="35" t="s">
+      <c r="E48" s="32"/>
+      <c r="F48" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="G48" s="35"/>
-      <c r="H48" s="36"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="34"/>
     </row>
     <row r="49" spans="4:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="50" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D50" s="13"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="15"/>
-      <c r="M50" s="12" t="s">
+      <c r="D50" s="11"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="13"/>
+      <c r="M50" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="N50" s="12" t="s">
+      <c r="N50" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="T50" s="12" t="s">
+      <c r="T50" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="U50" s="12" t="s">
+      <c r="U50" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="51" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D51" s="16"/>
-      <c r="E51" s="28" t="s">
+      <c r="D51" s="14"/>
+      <c r="E51" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="18"/>
-      <c r="M51" s="12" t="s">
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="16"/>
+      <c r="M51" s="10" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="52" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D52" s="16"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="32" t="s">
+      <c r="D52" s="14"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="G52" s="32"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="18"/>
-      <c r="N52" s="12" t="s">
+      <c r="G52" s="30"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="16"/>
+      <c r="N52" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="O52" s="12" t="s">
+      <c r="O52" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="53" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D53" s="16"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="32" t="s">
+      <c r="D53" s="14"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="G53" s="32"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="18"/>
-      <c r="O53" s="12" t="s">
+      <c r="G53" s="30"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="16"/>
+      <c r="O53" s="10" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="54" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D54" s="16"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="32" t="s">
+      <c r="D54" s="14"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="G54" s="32"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="17" t="s">
+      <c r="G54" s="30"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="J54" s="17"/>
-      <c r="K54" s="18"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="16"/>
     </row>
     <row r="55" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D55" s="16"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="35" t="s">
+      <c r="D55" s="14"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="G55" s="35"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="17" t="s">
+      <c r="G55" s="33"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="J55" s="17"/>
-      <c r="K55" s="18"/>
-      <c r="N55" s="12" t="s">
+      <c r="J55" s="15"/>
+      <c r="K55" s="16"/>
+      <c r="N55" s="10" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="56" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D56" s="16"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="35" t="s">
+      <c r="D56" s="14"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="G56" s="35"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="17" t="s">
+      <c r="G56" s="33"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="J56" s="17"/>
-      <c r="K56" s="18"/>
-      <c r="P56" s="45" t="s">
+      <c r="J56" s="15"/>
+      <c r="K56" s="16"/>
+      <c r="P56" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="Q56" s="45" t="s">
+      <c r="Q56" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="R56" s="45"/>
-      <c r="S56" s="46" t="s">
+      <c r="R56" s="43"/>
+      <c r="S56" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="T56" s="46"/>
-      <c r="U56" s="46" t="s">
+      <c r="T56" s="44"/>
+      <c r="U56" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="57" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D57" s="16"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="32" t="s">
+      <c r="D57" s="14"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="G57" s="32"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="18"/>
-      <c r="Q57" s="12" t="s">
+      <c r="G57" s="30"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="16"/>
+      <c r="Q57" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="58" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D58" s="16"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="35" t="s">
+      <c r="D58" s="14"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="G58" s="35"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="18"/>
-      <c r="Q58" s="12" t="s">
+      <c r="G58" s="33"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="16"/>
+      <c r="Q58" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="U58" s="12" t="s">
+      <c r="U58" s="10" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="59" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D59" s="16"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="35" t="s">
+      <c r="D59" s="14"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="G59" s="35"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="18"/>
-      <c r="W59" s="47" t="s">
+      <c r="G59" s="33"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="16"/>
+      <c r="W59" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="X59" s="48"/>
-      <c r="Y59" s="49"/>
+      <c r="X59" s="46"/>
+      <c r="Y59" s="47"/>
     </row>
     <row r="60" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D60" s="16"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="35" t="s">
+      <c r="D60" s="14"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="G60" s="35"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="18"/>
-      <c r="Q60" s="47" t="s">
+      <c r="G60" s="33"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="16"/>
+      <c r="Q60" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="R60" s="48"/>
-      <c r="S60" s="49"/>
-      <c r="T60" s="47" t="s">
+      <c r="R60" s="46"/>
+      <c r="S60" s="47"/>
+      <c r="T60" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="U60" s="48"/>
-      <c r="V60" s="49"/>
-      <c r="W60" s="47" t="s">
+      <c r="U60" s="46"/>
+      <c r="V60" s="47"/>
+      <c r="W60" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="X60" s="48"/>
-      <c r="Y60" s="49"/>
-      <c r="Z60" s="47" t="s">
+      <c r="X60" s="46"/>
+      <c r="Y60" s="47"/>
+      <c r="Z60" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="AA60" s="48"/>
-      <c r="AB60" s="49"/>
+      <c r="AA60" s="46"/>
+      <c r="AB60" s="47"/>
     </row>
     <row r="61" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D61" s="16"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="35" t="s">
+      <c r="D61" s="14"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="G61" s="35"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="18"/>
-      <c r="Q61" s="47" t="s">
+      <c r="G61" s="33"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="16"/>
+      <c r="Q61" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="R61" s="48"/>
-      <c r="S61" s="49"/>
-      <c r="T61" s="47" t="s">
+      <c r="R61" s="46"/>
+      <c r="S61" s="47"/>
+      <c r="T61" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="U61" s="48"/>
-      <c r="V61" s="49"/>
-      <c r="W61" s="47"/>
-      <c r="X61" s="48"/>
-      <c r="Y61" s="49"/>
-      <c r="Z61" s="47" t="s">
+      <c r="U61" s="46"/>
+      <c r="V61" s="47"/>
+      <c r="W61" s="45"/>
+      <c r="X61" s="46"/>
+      <c r="Y61" s="47"/>
+      <c r="Z61" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="AA61" s="48"/>
-      <c r="AB61" s="49"/>
+      <c r="AA61" s="46"/>
+      <c r="AB61" s="47"/>
     </row>
     <row r="62" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D62" s="16"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="35" t="s">
+      <c r="D62" s="14"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="G62" s="35"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
-      <c r="K62" s="18"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="16"/>
     </row>
     <row r="63" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D63" s="16"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="35" t="s">
+      <c r="D63" s="14"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="G63" s="35"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="18"/>
-      <c r="N63" s="12" t="s">
+      <c r="G63" s="33"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="16"/>
+      <c r="N63" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="O63" s="12" t="s">
+      <c r="O63" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="64" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D64" s="16"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="35" t="s">
+      <c r="D64" s="14"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="G64" s="35"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="18"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="16"/>
     </row>
     <row r="65" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D65" s="16"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="35" t="s">
+      <c r="D65" s="14"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="G65" s="35"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="17" t="s">
+      <c r="G65" s="33"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="J65" s="17"/>
-      <c r="K65" s="18"/>
-      <c r="W65" s="47" t="s">
+      <c r="J65" s="15"/>
+      <c r="K65" s="16"/>
+      <c r="W65" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="X65" s="48"/>
-      <c r="Y65" s="49"/>
+      <c r="X65" s="46"/>
+      <c r="Y65" s="47"/>
     </row>
     <row r="66" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D66" s="16"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="35" t="s">
+      <c r="D66" s="14"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="G66" s="35"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="17"/>
-      <c r="K66" s="18"/>
-      <c r="Q66" s="47" t="s">
+      <c r="G66" s="33"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="16"/>
+      <c r="Q66" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="R66" s="48"/>
-      <c r="S66" s="49"/>
-      <c r="T66" s="47" t="s">
+      <c r="R66" s="46"/>
+      <c r="S66" s="47"/>
+      <c r="T66" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="U66" s="48"/>
-      <c r="V66" s="49"/>
-      <c r="W66" s="47" t="s">
+      <c r="U66" s="46"/>
+      <c r="V66" s="47"/>
+      <c r="W66" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="X66" s="48"/>
-      <c r="Y66" s="49"/>
-      <c r="Z66" s="47" t="s">
+      <c r="X66" s="46"/>
+      <c r="Y66" s="47"/>
+      <c r="Z66" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="AA66" s="48"/>
-      <c r="AB66" s="49"/>
+      <c r="AA66" s="46"/>
+      <c r="AB66" s="47"/>
     </row>
     <row r="67" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D67" s="16"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="35" t="s">
+      <c r="D67" s="14"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="G67" s="35"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="17" t="s">
+      <c r="G67" s="33"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="J67" s="17"/>
-      <c r="K67" s="18"/>
-      <c r="Q67" s="47" t="s">
+      <c r="J67" s="15"/>
+      <c r="K67" s="16"/>
+      <c r="Q67" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="R67" s="48"/>
-      <c r="S67" s="49"/>
-      <c r="T67" s="47" t="s">
+      <c r="R67" s="46"/>
+      <c r="S67" s="47"/>
+      <c r="T67" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="U67" s="48"/>
-      <c r="V67" s="49"/>
-      <c r="W67" s="47"/>
-      <c r="X67" s="48"/>
-      <c r="Y67" s="49"/>
-      <c r="Z67" s="47" t="s">
+      <c r="U67" s="46"/>
+      <c r="V67" s="47"/>
+      <c r="W67" s="45"/>
+      <c r="X67" s="46"/>
+      <c r="Y67" s="47"/>
+      <c r="Z67" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="AA67" s="48"/>
-      <c r="AB67" s="49"/>
+      <c r="AA67" s="46"/>
+      <c r="AB67" s="47"/>
     </row>
     <row r="68" spans="4:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D68" s="25"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="26"/>
-      <c r="J68" s="26"/>
-      <c r="K68" s="27"/>
-      <c r="W68" s="50" t="s">
+      <c r="D68" s="23"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="24"/>
+      <c r="K68" s="25"/>
+      <c r="W68" s="48" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="69" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="W69" s="50" t="s">
+      <c r="W69" s="48" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="71" spans="4:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="72" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D72" s="13"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="15"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="13"/>
     </row>
     <row r="73" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D73" s="16"/>
-      <c r="E73" s="28" t="s">
+      <c r="D73" s="14"/>
+      <c r="E73" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="F73" s="29"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="30"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="18"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="16"/>
     </row>
     <row r="74" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D74" s="16"/>
-      <c r="E74" s="34"/>
-      <c r="F74" s="35" t="s">
+      <c r="D74" s="14"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="G74" s="35"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="18"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="34"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="16"/>
     </row>
     <row r="75" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D75" s="16"/>
-      <c r="E75" s="34"/>
-      <c r="F75" s="35" t="s">
+      <c r="D75" s="14"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="G75" s="35"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
-      <c r="K75" s="18"/>
-      <c r="U75" s="12">
+      <c r="G75" s="33"/>
+      <c r="H75" s="34"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="16"/>
+      <c r="U75" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D76" s="16"/>
-      <c r="E76" s="34"/>
-      <c r="F76" s="35" t="s">
+      <c r="D76" s="14"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="G76" s="35"/>
-      <c r="H76" s="36"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="18"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="34"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="16"/>
     </row>
     <row r="77" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D77" s="16"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="36"/>
-      <c r="I77" s="17"/>
-      <c r="J77" s="17"/>
-      <c r="K77" s="18"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="16"/>
     </row>
     <row r="78" spans="4:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D78" s="25"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="26"/>
-      <c r="J78" s="26"/>
-      <c r="K78" s="27"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="25"/>
     </row>
     <row r="79" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="17"/>
-      <c r="J79" s="17"/>
-      <c r="K79" s="17"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
     </row>
     <row r="80" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="17"/>
-      <c r="I80" s="17"/>
-      <c r="J80" s="17"/>
-      <c r="K80" s="17"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15"/>
     </row>
     <row r="81" spans="4:20" x14ac:dyDescent="0.15">
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="17"/>
-      <c r="I81" s="17"/>
-      <c r="J81" s="17"/>
-      <c r="K81" s="17"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="15"/>
     </row>
     <row r="82" spans="4:20" x14ac:dyDescent="0.15">
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="17"/>
-      <c r="J82" s="17"/>
-      <c r="K82" s="17"/>
-      <c r="T82" s="12" t="s">
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="15"/>
+      <c r="T82" s="10" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="83" spans="4:20" x14ac:dyDescent="0.15">
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="17"/>
-      <c r="J83" s="17"/>
-      <c r="K83" s="17"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="15"/>
     </row>
     <row r="84" spans="4:20" x14ac:dyDescent="0.15">
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
-      <c r="J84" s="17"/>
-      <c r="K84" s="17"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
     </row>
     <row r="85" spans="4:20" x14ac:dyDescent="0.15">
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="17"/>
-      <c r="J85" s="17"/>
-      <c r="K85" s="17"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="15"/>
     </row>
     <row r="86" spans="4:20" x14ac:dyDescent="0.15">
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="17"/>
-      <c r="J86" s="17"/>
-      <c r="K86" s="17"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="15"/>
     </row>
     <row r="87" spans="4:20" x14ac:dyDescent="0.15">
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="17"/>
-      <c r="I87" s="17"/>
-      <c r="J87" s="17"/>
-      <c r="K87" s="17"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="15"/>
     </row>
     <row r="88" spans="4:20" x14ac:dyDescent="0.15">
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="17"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="17"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3430,45 +3630,93 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="3:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="3:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="C7" s="31"/>
-      <c r="D7" s="32" t="s">
+      <c r="C7" s="29"/>
+      <c r="D7" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="3:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="C8" s="34"/>
-      <c r="D8" s="35" t="s">
+      <c r="C8" s="32"/>
+      <c r="D8" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="36"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
     </row>
     <row r="9" spans="3:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="C9" s="34"/>
-      <c r="D9" s="35" t="s">
+      <c r="C9" s="32"/>
+      <c r="D9" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="36"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
     </row>
     <row r="10" spans="3:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="36"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B21:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>145</v>
+      </c>
+      <c r="E21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/AutoDo/仕様.xlsx
+++ b/AutoDo/仕様.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="11205" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="11205" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="ER图" sheetId="5" r:id="rId5"/>
+    <sheet name="案件进步" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="200">
   <si>
     <t>edp_no</t>
   </si>
@@ -748,12 +749,308 @@
     <t>Left</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>edp_no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▼</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kinou_no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※作成基準：○＝必須 ／ △＝任意（要否を判断し承認をもらうこと）×＝不要、 維持基準：○＝既存ドキュメントを維持要</t>
+  </si>
+  <si>
+    <t>テーブル定義書□</t>
+    <rPh sb="4" eb="7">
+      <t>テイギショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビュー定義書□</t>
+    <rPh sb="3" eb="6">
+      <t>テイギショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ER図□</t>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能定義書（詳細）□</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>テイギショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関数定義書□</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>テイギショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単体テスト仕様書□</t>
+    <rPh sb="0" eb="2">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">製造 </t>
+  </si>
+  <si>
+    <t>結合テスト仕様書</t>
+  </si>
+  <si>
+    <t>ソース□</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成必要PGM</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結合テスト仕様書□</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　機能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　EDP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Path　Server</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Path　Client</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予定</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始日</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了日</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能名</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部仕様設計</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部仕様</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内部仕様設計</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内部仕様</t>
+  </si>
+  <si>
+    <t xml:space="preserve">製造 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20%●　40%○　60%○　80%○　100%○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ER図</t>
+  </si>
+  <si>
+    <t>テーブル定義書</t>
+  </si>
+  <si>
+    <t>機能定義書（詳細）</t>
+  </si>
+  <si>
+    <t>単体テスト仕様書</t>
+  </si>
+  <si>
+    <t>ソース</t>
+  </si>
+  <si>
+    <t>20%○　40%○　60%○　80%○　100%○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>进步率</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正●　新規○</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Code　Path</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>簡単●　変更点○　全○</t>
+    <rPh sb="0" eb="2">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更（回数）</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更前ソース</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更後ソース</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>比較</t>
+    <rPh sb="0" eb="2">
+      <t>ヒカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>项目所用时间</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例子复制</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QA</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -818,8 +1115,36 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0000FF"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0000FF"/>
+      <name val="FangSong"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -862,8 +1187,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1040,13 +1371,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1199,6 +1558,99 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1206,6 +1658,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2065,7 +2522,7 @@
   <dimension ref="C7:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:E28"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2184,7 +2641,7 @@
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C19" s="7" t="s">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>1</v>
@@ -3677,8 +4134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B21:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3719,4 +4176,541 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:N46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="9" style="51"/>
+    <col min="3" max="3" width="10.625" style="51" customWidth="1"/>
+    <col min="4" max="4" width="11" style="51" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="17.25" style="51" customWidth="1"/>
+    <col min="9" max="10" width="9" style="51"/>
+    <col min="11" max="11" width="10.125" style="51" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="51"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="2:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="58"/>
+    </row>
+    <row r="6" spans="2:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="59"/>
+      <c r="C6" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="60"/>
+    </row>
+    <row r="7" spans="2:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="59"/>
+      <c r="C7" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="66"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="60"/>
+    </row>
+    <row r="8" spans="2:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="59"/>
+      <c r="C8" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="60"/>
+    </row>
+    <row r="9" spans="2:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="59"/>
+      <c r="C9" s="53" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="60"/>
+    </row>
+    <row r="10" spans="2:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="59"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="I10" s="60"/>
+    </row>
+    <row r="11" spans="2:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="61"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="63"/>
+    </row>
+    <row r="12" spans="2:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="55"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="58"/>
+    </row>
+    <row r="13" spans="2:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="59"/>
+      <c r="C13" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="60"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="59"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="60"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="59"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="60"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="59"/>
+      <c r="C16" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="60"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B17" s="59"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="60"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B18" s="59"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="60"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B19" s="59"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="H19" s="52"/>
+      <c r="I19" s="60"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B20" s="59"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="60"/>
+      <c r="K20" s="51" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B21" s="59"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="F21" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="G21" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="H21" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="I21" s="60"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B22" s="59"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="79" t="s">
+        <v>190</v>
+      </c>
+      <c r="H22" s="53"/>
+      <c r="I22" s="60"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B23" s="59"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="G23" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="H23" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="I23" s="60"/>
+    </row>
+    <row r="24" spans="2:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="59"/>
+      <c r="C24" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" s="53"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="60"/>
+    </row>
+    <row r="25" spans="2:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="59"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="F25" s="71"/>
+      <c r="G25" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="H25" s="52"/>
+      <c r="I25" s="60"/>
+    </row>
+    <row r="26" spans="2:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="59"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="60"/>
+    </row>
+    <row r="27" spans="2:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="59"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="I27" s="60"/>
+    </row>
+    <row r="28" spans="2:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="61"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="63"/>
+    </row>
+    <row r="29" spans="2:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="73" t="s">
+        <v>187</v>
+      </c>
+      <c r="D30" s="76"/>
+      <c r="E30" s="78">
+        <v>0.6</v>
+      </c>
+      <c r="F30" s="77"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="68"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C31" s="73" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C33" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="H33" s="73" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D34" s="51" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E35" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="F35" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="H35" s="75">
+        <v>0.2</v>
+      </c>
+      <c r="J35" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="K35" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="L35" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="N35" s="51" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E36" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="F36" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="H36" s="74"/>
+      <c r="J36" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="K36" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="L36" s="80" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D37" s="51" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E38" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="F38" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="H38" s="74"/>
+      <c r="J38" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="K38" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="L38" s="80" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39" spans="3:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E39" s="52" t="s">
+        <v>184</v>
+      </c>
+      <c r="F39" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="H39" s="74"/>
+      <c r="J39" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="K39" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="L39" s="80" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="3:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D40" s="51" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="3:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E41" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="F41" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="H41" s="74"/>
+      <c r="J41" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="K41" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="L41" s="80" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="42" spans="3:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E42" s="81" t="s">
+        <v>185</v>
+      </c>
+      <c r="F42" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="H42" s="74"/>
+      <c r="J42" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="K42" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="L42" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="N42" s="73" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="43" spans="3:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E43" s="52" t="s">
+        <v>184</v>
+      </c>
+      <c r="F43" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="H43" s="74"/>
+      <c r="J43" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="K43" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="L43" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="N43" s="73" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" spans="3:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E44" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="F44" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="H44" s="74"/>
+      <c r="J44" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="K44" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="L44" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="N44" s="51" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="46" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C46" s="51" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AutoDo/仕様.xlsx
+++ b/AutoDo/仕様.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="237">
   <si>
     <t>edp_no</t>
   </si>
@@ -762,10 +762,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　　　　　</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※作成基準：○＝必須 ／ △＝任意（要否を判断し承認をもらうこと）×＝不要、 維持基準：○＝既存ドキュメントを維持要</t>
   </si>
   <si>
@@ -1043,6 +1039,152 @@
   </si>
   <si>
     <t>QA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>edp_no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m_ankan_kinou_info</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>code_path1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>code_path2</t>
+  </si>
+  <si>
+    <t>code_path3</t>
+  </si>
+  <si>
+    <t>server_siryou_path</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>client_siryou_path</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kinou_mei</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yotei_start_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yotei_end_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yotei_kousuu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m_ankan_pgm_info</t>
+  </si>
+  <si>
+    <t>pgm_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pgm_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pgm_level</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kinou_kbn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pgm_sinntyoku_retu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pgm_santaku_flg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m_ankan_pgm_info</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pgm_level</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pgm_demo_path</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pgm_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pgm_last_upd_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pgm_bunrui_cd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pgm_bunrui_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m_list_info</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pgm_staus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未着手、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成中、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本側検証中</t>
+  </si>
+  <si>
+    <t>km_no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>km_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>m_ankan_kihon_info</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1405,7 +1547,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1553,104 +1695,107 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2141,10 +2286,10 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="50"/>
+      <c r="E4" s="81"/>
       <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2261,10 +2406,10 @@
       <c r="R9" s="2"/>
     </row>
     <row r="10" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="50"/>
+      <c r="E10" s="81"/>
       <c r="F10" s="1" t="s">
         <v>6</v>
       </c>
@@ -4180,533 +4325,714 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:N46"/>
+  <dimension ref="B4:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K25" sqref="A21:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9" style="51"/>
-    <col min="3" max="3" width="10.625" style="51" customWidth="1"/>
-    <col min="4" max="4" width="11" style="51" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="17.25" style="51" customWidth="1"/>
-    <col min="9" max="10" width="9" style="51"/>
-    <col min="11" max="11" width="10.125" style="51" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="51"/>
+    <col min="1" max="2" width="9" style="49"/>
+    <col min="3" max="3" width="10.625" style="49" customWidth="1"/>
+    <col min="4" max="4" width="11" style="49" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="17.25" style="49" customWidth="1"/>
+    <col min="9" max="10" width="9" style="49"/>
+    <col min="11" max="11" width="17" style="49" customWidth="1"/>
+    <col min="12" max="13" width="16.125" style="49" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="49"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="2:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="58"/>
-    </row>
-    <row r="6" spans="2:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="59"/>
-      <c r="C6" s="53" t="s">
+    <row r="4" spans="2:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="2:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="O5" s="49" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="57"/>
+      <c r="C6" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="58"/>
+      <c r="K6" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="L6" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="M6" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="N6" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="P6" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="R6" s="49" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="57"/>
+      <c r="C7" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="64"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="58"/>
+      <c r="K7" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="L7" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="M7" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="P7" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="R7" s="49" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="57"/>
+      <c r="C8" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" s="64"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="58"/>
+      <c r="K8" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="L8" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="M8" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="R8" s="49" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="57"/>
+      <c r="C9" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D9" s="64"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="58"/>
+      <c r="K9" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="L9" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="M9" s="49" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="57"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="67" t="s">
+        <v>169</v>
+      </c>
+      <c r="I10" s="58"/>
+      <c r="K10" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="L10" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="M10" s="49" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="59"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="61"/>
+      <c r="K11" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="L11" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="M11" s="49" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="53"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="49" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="57"/>
+      <c r="C13" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="E6" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="60"/>
-    </row>
-    <row r="7" spans="2:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="59"/>
-      <c r="C7" s="53" t="s">
-        <v>168</v>
-      </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="60"/>
-    </row>
-    <row r="8" spans="2:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="59"/>
-      <c r="C8" s="53" t="s">
+      <c r="E13" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="58"/>
+      <c r="K13" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="49" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B14" s="57"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="58"/>
+      <c r="K14" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="N14" s="49" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B15" s="57"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="58"/>
+      <c r="K15" s="51" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B16" s="57"/>
+      <c r="C16" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="58"/>
+      <c r="K16" s="51" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B17" s="57"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="68" t="s">
+        <v>153</v>
+      </c>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="58"/>
+      <c r="K17" s="49" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B18" s="57"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="58"/>
+      <c r="K18" s="49" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B19" s="57"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="F19" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="G19" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="H19" s="50"/>
+      <c r="I19" s="58"/>
+      <c r="K19" s="49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B20" s="57"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="58"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B21" s="57"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="F21" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="G21" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="H21" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="I21" s="58"/>
+      <c r="J21" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="O21" s="49" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B22" s="57"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="77" t="s">
+        <v>189</v>
+      </c>
+      <c r="H22" s="51"/>
+      <c r="I22" s="58"/>
+      <c r="K22" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="N22" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="P22" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="R22" s="49" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B23" s="57"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="G23" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="H23" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="I23" s="58"/>
+      <c r="K23" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="N23" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="P23" s="49" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="57"/>
+      <c r="C24" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="D24" s="51"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="58"/>
+      <c r="K24" s="49" t="s">
+        <v>221</v>
+      </c>
+      <c r="N24" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="P24" s="49" t="s">
+        <v>212</v>
+      </c>
+      <c r="R24" s="49" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="57"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="70" t="s">
+        <v>171</v>
+      </c>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70" t="s">
+        <v>172</v>
+      </c>
+      <c r="H25" s="50"/>
+      <c r="I25" s="58"/>
+      <c r="K25" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="P25" s="49" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="57"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="58"/>
+      <c r="K26" s="49" t="s">
+        <v>214</v>
+      </c>
+      <c r="P26" s="49" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="57"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="67" t="s">
         <v>169</v>
       </c>
-      <c r="D8" s="66"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="60"/>
-    </row>
-    <row r="9" spans="2:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="59"/>
-      <c r="C9" s="53" t="s">
-        <v>189</v>
-      </c>
-      <c r="D9" s="66"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="60"/>
-    </row>
-    <row r="10" spans="2:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="59"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="69" t="s">
-        <v>170</v>
-      </c>
-      <c r="I10" s="60"/>
-    </row>
-    <row r="11" spans="2:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="61"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="63"/>
-    </row>
-    <row r="12" spans="2:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="55"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="58"/>
-    </row>
-    <row r="13" spans="2:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="59"/>
-      <c r="C13" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" s="64" t="s">
-        <v>151</v>
-      </c>
-      <c r="E13" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="60"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="59"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="51" t="s">
-        <v>188</v>
-      </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="60"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="59"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="60"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="59"/>
-      <c r="C16" s="53" t="s">
-        <v>164</v>
-      </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="60"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B17" s="59"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="70" t="s">
-        <v>154</v>
-      </c>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="60"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B18" s="59"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53" t="s">
+      <c r="I27" s="58"/>
+      <c r="K27" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="P27" s="49" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="59"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="61"/>
+      <c r="K28" s="49" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="K29" s="49" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="D30" s="74"/>
+      <c r="E30" s="76">
+        <v>0.6</v>
+      </c>
+      <c r="F30" s="75"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="66"/>
+      <c r="K30" s="49" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="C31" s="71" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C33" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="H33" s="71" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D34" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="60"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B19" s="59"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="F19" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="G19" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="H19" s="52"/>
-      <c r="I19" s="60"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B20" s="59"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53" t="s">
+    </row>
+    <row r="35" spans="3:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E35" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="F35" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="H35" s="73">
+        <v>0.2</v>
+      </c>
+      <c r="J35" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="K35" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="L35" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="M35" s="82"/>
+      <c r="O35" s="49" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E36" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="F36" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="H36" s="72"/>
+      <c r="J36" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="K36" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="L36" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="M36" s="82"/>
+    </row>
+    <row r="37" spans="3:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D37" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="60"/>
-      <c r="K20" s="51" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B21" s="59"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="F21" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="G21" s="52" t="s">
+    </row>
+    <row r="38" spans="3:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E38" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="F38" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="H38" s="72"/>
+      <c r="J38" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="K38" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="L38" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="M38" s="82"/>
+    </row>
+    <row r="39" spans="3:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E39" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="F39" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="H39" s="72"/>
+      <c r="J39" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="K39" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="L39" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="M39" s="82"/>
+    </row>
+    <row r="40" spans="3:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D40" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="H21" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="I21" s="60"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B22" s="59"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="79" t="s">
+    </row>
+    <row r="41" spans="3:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E41" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="F41" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="H41" s="72"/>
+      <c r="J41" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="H22" s="53"/>
-      <c r="I22" s="60"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B23" s="59"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="F23" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="G23" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="H23" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="I23" s="60"/>
-    </row>
-    <row r="24" spans="2:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="59"/>
-      <c r="C24" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="D24" s="53"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="60"/>
-    </row>
-    <row r="25" spans="2:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="59"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="72" t="s">
-        <v>172</v>
-      </c>
-      <c r="F25" s="71"/>
-      <c r="G25" s="72" t="s">
-        <v>173</v>
-      </c>
-      <c r="H25" s="52"/>
-      <c r="I25" s="60"/>
-    </row>
-    <row r="26" spans="2:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="59"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="60"/>
-    </row>
-    <row r="27" spans="2:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="59"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="69" t="s">
-        <v>170</v>
-      </c>
-      <c r="I27" s="60"/>
-    </row>
-    <row r="28" spans="2:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="61"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="63"/>
-    </row>
-    <row r="29" spans="2:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="73" t="s">
-        <v>187</v>
-      </c>
-      <c r="D30" s="76"/>
-      <c r="E30" s="78">
-        <v>0.6</v>
-      </c>
-      <c r="F30" s="77"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="68"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C31" s="73" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C33" s="51" t="s">
-        <v>174</v>
-      </c>
-      <c r="H33" s="73" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="34" spans="3:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D34" s="51" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="35" spans="3:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E35" s="52" t="s">
-        <v>181</v>
-      </c>
-      <c r="F35" s="51" t="s">
-        <v>180</v>
-      </c>
-      <c r="H35" s="75">
-        <v>0.2</v>
-      </c>
-      <c r="J35" s="80" t="s">
+      <c r="K41" s="78" t="s">
         <v>191</v>
       </c>
-      <c r="K35" s="80" t="s">
+      <c r="L41" s="78" t="s">
         <v>192</v>
       </c>
-      <c r="L35" s="80" t="s">
+      <c r="M41" s="82"/>
+    </row>
+    <row r="42" spans="3:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E42" s="79" t="s">
+        <v>184</v>
+      </c>
+      <c r="F42" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="H42" s="72"/>
+      <c r="J42" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="K42" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="L42" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="M42" s="82"/>
+      <c r="O42" s="71" t="s">
         <v>193</v>
       </c>
-      <c r="N35" s="51" t="s">
+    </row>
+    <row r="43" spans="3:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E43" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="F43" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="H43" s="72"/>
+      <c r="J43" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="K43" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="L43" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="M43" s="82"/>
+      <c r="O43" s="71" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E44" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="F44" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="H44" s="72"/>
+      <c r="J44" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="K44" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="L44" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="M44" s="82"/>
+      <c r="O44" s="49" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C46" s="49" t="s">
         <v>198</v>
-      </c>
-    </row>
-    <row r="36" spans="3:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E36" s="52" t="s">
-        <v>182</v>
-      </c>
-      <c r="F36" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="H36" s="74"/>
-      <c r="J36" s="80" t="s">
-        <v>191</v>
-      </c>
-      <c r="K36" s="80" t="s">
-        <v>192</v>
-      </c>
-      <c r="L36" s="80" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="37" spans="3:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D37" s="51" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="38" spans="3:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E38" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="F38" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="H38" s="74"/>
-      <c r="J38" s="80" t="s">
-        <v>191</v>
-      </c>
-      <c r="K38" s="80" t="s">
-        <v>192</v>
-      </c>
-      <c r="L38" s="80" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="39" spans="3:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E39" s="52" t="s">
-        <v>184</v>
-      </c>
-      <c r="F39" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="H39" s="74"/>
-      <c r="J39" s="80" t="s">
-        <v>191</v>
-      </c>
-      <c r="K39" s="80" t="s">
-        <v>192</v>
-      </c>
-      <c r="L39" s="80" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="40" spans="3:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D40" s="51" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="41" spans="3:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E41" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="F41" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="H41" s="74"/>
-      <c r="J41" s="80" t="s">
-        <v>191</v>
-      </c>
-      <c r="K41" s="80" t="s">
-        <v>192</v>
-      </c>
-      <c r="L41" s="80" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="42" spans="3:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E42" s="81" t="s">
-        <v>185</v>
-      </c>
-      <c r="F42" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="H42" s="74"/>
-      <c r="J42" s="80" t="s">
-        <v>191</v>
-      </c>
-      <c r="K42" s="80" t="s">
-        <v>192</v>
-      </c>
-      <c r="L42" s="80" t="s">
-        <v>193</v>
-      </c>
-      <c r="N42" s="73" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="43" spans="3:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E43" s="52" t="s">
-        <v>184</v>
-      </c>
-      <c r="F43" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="H43" s="74"/>
-      <c r="J43" s="80" t="s">
-        <v>191</v>
-      </c>
-      <c r="K43" s="80" t="s">
-        <v>192</v>
-      </c>
-      <c r="L43" s="80" t="s">
-        <v>193</v>
-      </c>
-      <c r="N43" s="73" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="44" spans="3:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E44" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="F44" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="H44" s="74"/>
-      <c r="J44" s="80" t="s">
-        <v>191</v>
-      </c>
-      <c r="K44" s="80" t="s">
-        <v>192</v>
-      </c>
-      <c r="L44" s="80" t="s">
-        <v>193</v>
-      </c>
-      <c r="N44" s="51" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="46" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C46" s="51" t="s">
-        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/AutoDo/仕様.xlsx
+++ b/AutoDo/仕様.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ILIKEMAKE2017\AutoMakeCode\AutoCode\slnAC\AutoDo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="11205" activeTab="5"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="276">
   <si>
     <t>edp_no</t>
   </si>
@@ -903,15 +908,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>外部仕様設計</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>外部仕様</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>内部仕様設計</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1046,68 +1043,269 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>code_path1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>code_path2</t>
+  </si>
+  <si>
+    <t>code_path3</t>
+  </si>
+  <si>
+    <t>server_siryou_path</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>client_siryou_path</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kinou_mei</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yotei_start_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yotei_end_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yotei_kousuu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pgm_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pgm_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pgm_level</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kinou_kbn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pgm_sinntyoku_retu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pgm_level</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pgm_demo_path</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pgm_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pgm_last_upd_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pgm_bunrui_cd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pgm_bunrui_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m_list_info</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pgm_staus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未着手、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成中、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本側検証中</t>
+  </si>
+  <si>
+    <t>km_no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>km_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>m_ankan_kihon_info</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CREATE TABLE [dbo].[m_ankan_kihon_info](</t>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+  </si>
+  <si>
+    <t>NOT NULL,</t>
+  </si>
+  <si>
+    <t>server_siryou_path</t>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
+  </si>
+  <si>
+    <t>NULL,</t>
+  </si>
+  <si>
+    <t>client_siryou_path</t>
+  </si>
+  <si>
+    <t>code_path1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CONSTRAINT [PK_m_ankan_kihon_info] PRIMARY KEY CLUSTERED </t>
+  </si>
+  <si>
+    <t>[edp_no] ASC</t>
+  </si>
+  <si>
+    <t>)WITH (PAD_INDEX  = OFF, STATISTICS_NORECOMPUTE  = OFF, IGNORE_DUP_KEY = OFF, ALLOW_ROW_LOCKS  = ON, ALLOW_PAGE_LOCKS  = ON) ON [PRIMARY]</t>
+  </si>
+  <si>
+    <t>[numeric](9, 0)</t>
+  </si>
+  <si>
+    <t>nvarchar(1)</t>
+  </si>
+  <si>
+    <t>nvarchar(1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>m_ankan_kinou_info</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>○</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>code_path1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>code_path2</t>
-  </si>
-  <si>
-    <t>code_path3</t>
-  </si>
-  <si>
-    <t>server_siryou_path</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>client_siryou_path</t>
-    <phoneticPr fontId="1"/>
+    <t>CREATE TABLE [dbo].[m_ankan_kinou_info](</t>
+  </si>
+  <si>
+    <t>kinou_no</t>
   </si>
   <si>
     <t>kinou_mei</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kinou_kbn</t>
+  </si>
+  <si>
+    <t>yotei_kousuu</t>
   </si>
   <si>
     <t>yotei_start_date</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>datetime</t>
   </si>
   <si>
     <t>yotei_end_date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>yotei_kousuu</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> CONSTRAINT [PK_m_ankan_kinou_info] PRIMARY KEY CLUSTERED </t>
   </si>
   <si>
     <t>m_ankan_pgm_info</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CREATE TABLE [dbo].[m_ankan_pgm_info](</t>
+  </si>
+  <si>
+    <t>pgm_name</t>
+  </si>
+  <si>
+    <t>pgm_level</t>
+  </si>
+  <si>
+    <t>pgm_santaku_flg</t>
+  </si>
+  <si>
+    <t>pgm_sinntyoku_retu</t>
+  </si>
+  <si>
+    <t>pgm_last_upd_date</t>
+  </si>
+  <si>
+    <t>pgm_staus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CONSTRAINT [PK_m_ankan_pgm_info] PRIMARY KEY CLUSTERED </t>
+  </si>
+  <si>
+    <t>[edp_no] ASC,</t>
+  </si>
+  <si>
+    <t>kinou_no ASC</t>
+  </si>
+  <si>
+    <t>kinou_no</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>pgm_id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>pgm_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pgm_level</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>kinou_kbn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pgm_sinntyoku_retu</t>
+    <t>[edp_no] ASC,kinou_no ASC,pgm_id ASC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m_ankan_pgm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部仕様設計</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内部仕様設計</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1115,76 +1313,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>m_ankan_pgm_info</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pgm_level</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pgm_demo_path</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pgm_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pgm_last_upd_date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pgm_bunrui_cd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pgm_bunrui_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>m_list_info</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pgm_staus</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>未着手、</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成中、</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日本側検証中</t>
-  </si>
-  <si>
-    <t>km_no</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>km_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>nvarchar(500)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>m_ankan_kihon_info</t>
+    <t>kinou_no</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1192,18 +1321,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1788,18 +1917,18 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1811,6 +1940,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1988,7 +2120,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2030,7 +2162,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2065,7 +2197,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2280,16 +2412,16 @@
       <selection activeCell="D4" sqref="D4:R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="5" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="4" max="5" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D4" s="80" t="s">
+    <row r="4" spans="4:18" ht="18" customHeight="1">
+      <c r="D4" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="81"/>
+      <c r="E4" s="82"/>
       <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2306,7 +2438,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="4:18" ht="18" customHeight="1">
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
@@ -2329,7 +2461,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="4:18" ht="18" customHeight="1">
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
@@ -2350,7 +2482,7 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:18" ht="18" customHeight="1">
       <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
@@ -2371,7 +2503,7 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:18" ht="18" customHeight="1">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -2388,7 +2520,7 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:18" ht="18" customHeight="1">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -2405,11 +2537,11 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D10" s="80" t="s">
+    <row r="10" spans="4:18" ht="18" customHeight="1">
+      <c r="D10" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="81"/>
+      <c r="E10" s="82"/>
       <c r="F10" s="1" t="s">
         <v>6</v>
       </c>
@@ -2430,7 +2562,7 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:18" ht="18" customHeight="1">
       <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
@@ -2455,7 +2587,7 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:18" ht="18" customHeight="1">
       <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
@@ -2480,7 +2612,7 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:18" ht="18" customHeight="1">
       <c r="D13" s="3" t="s">
         <v>21</v>
       </c>
@@ -2503,7 +2635,7 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:18" ht="18" customHeight="1">
       <c r="D14" s="3" t="s">
         <v>23</v>
       </c>
@@ -2528,7 +2660,7 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
-    <row r="15" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="4:18" ht="18" customHeight="1">
       <c r="D15" s="3" t="s">
         <v>26</v>
       </c>
@@ -2553,7 +2685,7 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="4:18" ht="18" customHeight="1">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -2576,7 +2708,7 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
     </row>
-    <row r="17" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="4:18" ht="18" customHeight="1">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -2595,7 +2727,7 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
     </row>
-    <row r="18" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="4:18" ht="18" customHeight="1">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2614,7 +2746,7 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
     </row>
-    <row r="19" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="4:18" ht="18" customHeight="1">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -2633,7 +2765,7 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
     </row>
-    <row r="20" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:18" ht="18" customHeight="1">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -2670,16 +2802,16 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:5">
       <c r="C7" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:5">
       <c r="C8" s="7" t="s">
         <v>36</v>
       </c>
@@ -2690,7 +2822,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:5">
       <c r="C9" s="7" t="s">
         <v>39</v>
       </c>
@@ -2701,7 +2833,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:5">
       <c r="C10" s="8" t="s">
         <v>40</v>
       </c>
@@ -2712,7 +2844,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:5">
       <c r="C11" s="8" t="s">
         <v>41</v>
       </c>
@@ -2723,7 +2855,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:5">
       <c r="C12" s="8" t="s">
         <v>42</v>
       </c>
@@ -2734,7 +2866,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:5">
       <c r="C13" s="8" t="s">
         <v>43</v>
       </c>
@@ -2745,7 +2877,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:5">
       <c r="C14" s="8" t="s">
         <v>45</v>
       </c>
@@ -2756,7 +2888,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="3:5">
       <c r="C15" s="8" t="s">
         <v>48</v>
       </c>
@@ -2767,24 +2899,24 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="3:5">
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:5">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:5">
       <c r="C18" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:5">
       <c r="C19" s="7" t="s">
         <v>150</v>
       </c>
@@ -2795,7 +2927,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:5">
       <c r="C20" s="8" t="s">
         <v>2</v>
       </c>
@@ -2806,7 +2938,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:5">
       <c r="C21" s="8" t="s">
         <v>50</v>
       </c>
@@ -2817,24 +2949,24 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:5">
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:5">
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:5">
       <c r="C24" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:5">
       <c r="C25" s="7" t="s">
         <v>52</v>
       </c>
@@ -2845,7 +2977,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:5">
       <c r="C26" s="7" t="s">
         <v>53</v>
       </c>
@@ -2856,7 +2988,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:5">
       <c r="C27" s="7" t="s">
         <v>39</v>
       </c>
@@ -2867,7 +2999,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:5">
       <c r="C28" s="8" t="s">
         <v>54</v>
       </c>
@@ -2892,7 +3024,7 @@
       <selection activeCell="V45" sqref="V45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="3" width="1.25" style="10" customWidth="1"/>
     <col min="4" max="4" width="3" style="10" customWidth="1"/>
@@ -2901,13 +3033,13 @@
     <col min="10" max="16384" width="4.5" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22">
       <c r="A1" s="10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" ht="16.5" thickBot="1"/>
+    <row r="6" spans="1:22">
       <c r="E6" s="11"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -2920,7 +3052,7 @@
       <c r="N6" s="12"/>
       <c r="O6" s="13"/>
     </row>
-    <row r="7" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="16.5" thickBot="1">
       <c r="E7" s="14"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
@@ -2933,7 +3065,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="16"/>
     </row>
-    <row r="8" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="16.5" thickBot="1">
       <c r="E8" s="14"/>
       <c r="F8" s="15"/>
       <c r="G8" s="17" t="s">
@@ -2948,7 +3080,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="16"/>
     </row>
-    <row r="9" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" ht="16.5" thickBot="1">
       <c r="E9" s="14"/>
       <c r="F9" s="15"/>
       <c r="G9" s="17" t="s">
@@ -2963,7 +3095,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="16"/>
     </row>
-    <row r="10" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" ht="16.5" thickBot="1">
       <c r="E10" s="14"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
@@ -2976,7 +3108,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="16"/>
     </row>
-    <row r="11" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" ht="16.5" thickBot="1">
       <c r="E11" s="14"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
@@ -2992,7 +3124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" ht="16.5" thickBot="1">
       <c r="E12" s="23"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
@@ -3005,7 +3137,7 @@
       <c r="N12" s="24"/>
       <c r="O12" s="25"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22">
       <c r="E14" s="26" t="s">
         <v>58</v>
       </c>
@@ -3013,7 +3145,7 @@
       <c r="G14" s="27"/>
       <c r="H14" s="28"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22">
       <c r="E15" s="29"/>
       <c r="F15" s="30" t="s">
         <v>59</v>
@@ -3021,7 +3153,7 @@
       <c r="G15" s="30"/>
       <c r="H15" s="31"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22">
       <c r="E16" s="32"/>
       <c r="F16" s="33" t="s">
         <v>60</v>
@@ -3029,7 +3161,7 @@
       <c r="G16" s="33"/>
       <c r="H16" s="34"/>
     </row>
-    <row r="17" spans="5:37" x14ac:dyDescent="0.15">
+    <row r="17" spans="5:37">
       <c r="E17" s="32"/>
       <c r="F17" s="33" t="s">
         <v>61</v>
@@ -3037,7 +3169,7 @@
       <c r="G17" s="33"/>
       <c r="H17" s="34"/>
     </row>
-    <row r="18" spans="5:37" x14ac:dyDescent="0.15">
+    <row r="18" spans="5:37">
       <c r="E18" s="32"/>
       <c r="F18" s="33" t="s">
         <v>62</v>
@@ -3045,8 +3177,8 @@
       <c r="G18" s="33"/>
       <c r="H18" s="34"/>
     </row>
-    <row r="20" spans="5:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="5:37" x14ac:dyDescent="0.15">
+    <row r="20" spans="5:37" ht="16.5" thickBot="1"/>
+    <row r="21" spans="5:37">
       <c r="E21" s="11"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
@@ -3083,7 +3215,7 @@
       <c r="AJ21" s="12"/>
       <c r="AK21" s="13"/>
     </row>
-    <row r="22" spans="5:37" x14ac:dyDescent="0.15">
+    <row r="22" spans="5:37">
       <c r="E22" s="14"/>
       <c r="F22" s="15" t="s">
         <v>64</v>
@@ -3120,7 +3252,7 @@
       <c r="AJ22" s="15"/>
       <c r="AK22" s="16"/>
     </row>
-    <row r="23" spans="5:37" x14ac:dyDescent="0.15">
+    <row r="23" spans="5:37">
       <c r="E23" s="14"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
@@ -3159,7 +3291,7 @@
       <c r="AJ23" s="15"/>
       <c r="AK23" s="16"/>
     </row>
-    <row r="24" spans="5:37" x14ac:dyDescent="0.15">
+    <row r="24" spans="5:37">
       <c r="E24" s="14"/>
       <c r="F24" s="15"/>
       <c r="G24" s="17"/>
@@ -3200,7 +3332,7 @@
       <c r="AJ24" s="15"/>
       <c r="AK24" s="16"/>
     </row>
-    <row r="25" spans="5:37" x14ac:dyDescent="0.15">
+    <row r="25" spans="5:37">
       <c r="E25" s="14"/>
       <c r="F25" s="15"/>
       <c r="G25" s="17"/>
@@ -3241,7 +3373,7 @@
       <c r="AJ25" s="15"/>
       <c r="AK25" s="16"/>
     </row>
-    <row r="26" spans="5:37" x14ac:dyDescent="0.15">
+    <row r="26" spans="5:37">
       <c r="E26" s="14"/>
       <c r="F26" s="15" t="s">
         <v>68</v>
@@ -3278,7 +3410,7 @@
       <c r="AJ26" s="15"/>
       <c r="AK26" s="16"/>
     </row>
-    <row r="27" spans="5:37" x14ac:dyDescent="0.15">
+    <row r="27" spans="5:37">
       <c r="E27" s="14"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
@@ -3317,7 +3449,7 @@
       <c r="AJ27" s="15"/>
       <c r="AK27" s="16"/>
     </row>
-    <row r="28" spans="5:37" x14ac:dyDescent="0.15">
+    <row r="28" spans="5:37">
       <c r="E28" s="14"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
@@ -3358,7 +3490,7 @@
       <c r="AJ28" s="15"/>
       <c r="AK28" s="16"/>
     </row>
-    <row r="29" spans="5:37" x14ac:dyDescent="0.15">
+    <row r="29" spans="5:37">
       <c r="E29" s="14"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
@@ -3399,7 +3531,7 @@
       <c r="AJ29" s="15"/>
       <c r="AK29" s="16"/>
     </row>
-    <row r="30" spans="5:37" x14ac:dyDescent="0.15">
+    <row r="30" spans="5:37">
       <c r="E30" s="14"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
@@ -3434,7 +3566,7 @@
       <c r="AJ30" s="15"/>
       <c r="AK30" s="16"/>
     </row>
-    <row r="31" spans="5:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="5:37" ht="16.5" thickBot="1">
       <c r="E31" s="23"/>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
@@ -3469,7 +3601,7 @@
       <c r="AJ31" s="24"/>
       <c r="AK31" s="25"/>
     </row>
-    <row r="33" spans="5:19" x14ac:dyDescent="0.15">
+    <row r="33" spans="5:19">
       <c r="E33" s="26" t="s">
         <v>74</v>
       </c>
@@ -3483,7 +3615,7 @@
       <c r="O33" s="27"/>
       <c r="P33" s="28"/>
     </row>
-    <row r="34" spans="5:19" x14ac:dyDescent="0.15">
+    <row r="34" spans="5:19">
       <c r="E34" s="29"/>
       <c r="F34" s="30" t="s">
         <v>76</v>
@@ -3497,7 +3629,7 @@
       <c r="O34" s="30"/>
       <c r="P34" s="31"/>
     </row>
-    <row r="35" spans="5:19" x14ac:dyDescent="0.15">
+    <row r="35" spans="5:19">
       <c r="E35" s="32"/>
       <c r="F35" s="33" t="s">
         <v>77</v>
@@ -3511,7 +3643,7 @@
       <c r="O35" s="41"/>
       <c r="P35" s="42"/>
     </row>
-    <row r="36" spans="5:19" x14ac:dyDescent="0.15">
+    <row r="36" spans="5:19">
       <c r="E36" s="32"/>
       <c r="F36" s="33" t="s">
         <v>79</v>
@@ -3525,7 +3657,7 @@
       <c r="O36" s="41"/>
       <c r="P36" s="42"/>
     </row>
-    <row r="37" spans="5:19" x14ac:dyDescent="0.15">
+    <row r="37" spans="5:19">
       <c r="E37" s="32"/>
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
@@ -3537,7 +3669,7 @@
       <c r="O37" s="41"/>
       <c r="P37" s="42"/>
     </row>
-    <row r="40" spans="5:19" x14ac:dyDescent="0.15">
+    <row r="40" spans="5:19">
       <c r="E40" s="26" t="s">
         <v>81</v>
       </c>
@@ -3551,7 +3683,7 @@
       <c r="R40" s="27"/>
       <c r="S40" s="28"/>
     </row>
-    <row r="41" spans="5:19" x14ac:dyDescent="0.15">
+    <row r="41" spans="5:19">
       <c r="E41" s="29"/>
       <c r="F41" s="30" t="s">
         <v>78</v>
@@ -3565,7 +3697,7 @@
       <c r="R41" s="30"/>
       <c r="S41" s="31"/>
     </row>
-    <row r="42" spans="5:19" x14ac:dyDescent="0.15">
+    <row r="42" spans="5:19">
       <c r="E42" s="29"/>
       <c r="F42" s="30" t="s">
         <v>80</v>
@@ -3579,7 +3711,7 @@
       <c r="R42" s="30"/>
       <c r="S42" s="31"/>
     </row>
-    <row r="43" spans="5:19" x14ac:dyDescent="0.15">
+    <row r="43" spans="5:19">
       <c r="E43" s="32"/>
       <c r="F43" s="33" t="s">
         <v>83</v>
@@ -3596,7 +3728,7 @@
       <c r="R43" s="30"/>
       <c r="S43" s="31"/>
     </row>
-    <row r="44" spans="5:19" x14ac:dyDescent="0.15">
+    <row r="44" spans="5:19">
       <c r="E44" s="32"/>
       <c r="F44" s="33" t="s">
         <v>85</v>
@@ -3610,7 +3742,7 @@
       <c r="R44" s="30"/>
       <c r="S44" s="31"/>
     </row>
-    <row r="45" spans="5:19" x14ac:dyDescent="0.15">
+    <row r="45" spans="5:19">
       <c r="E45" s="32"/>
       <c r="F45" s="33" t="s">
         <v>87</v>
@@ -3618,7 +3750,7 @@
       <c r="G45" s="33"/>
       <c r="H45" s="34"/>
     </row>
-    <row r="46" spans="5:19" x14ac:dyDescent="0.15">
+    <row r="46" spans="5:19">
       <c r="E46" s="32"/>
       <c r="F46" s="33" t="s">
         <v>88</v>
@@ -3626,7 +3758,7 @@
       <c r="G46" s="33"/>
       <c r="H46" s="34"/>
     </row>
-    <row r="47" spans="5:19" x14ac:dyDescent="0.15">
+    <row r="47" spans="5:19">
       <c r="E47" s="32"/>
       <c r="F47" s="33" t="s">
         <v>89</v>
@@ -3637,7 +3769,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="5:19" x14ac:dyDescent="0.15">
+    <row r="48" spans="5:19">
       <c r="E48" s="32"/>
       <c r="F48" s="33" t="s">
         <v>91</v>
@@ -3645,8 +3777,8 @@
       <c r="G48" s="33"/>
       <c r="H48" s="34"/>
     </row>
-    <row r="49" spans="4:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="50" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="49" spans="4:28" ht="16.5" thickBot="1"/>
+    <row r="50" spans="4:28">
       <c r="D50" s="11"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
@@ -3668,7 +3800,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="51" spans="4:28">
       <c r="D51" s="14"/>
       <c r="E51" s="26" t="s">
         <v>96</v>
@@ -3683,7 +3815,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="52" spans="4:28">
       <c r="D52" s="14"/>
       <c r="E52" s="29"/>
       <c r="F52" s="30" t="s">
@@ -3701,7 +3833,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="53" spans="4:28">
       <c r="D53" s="14"/>
       <c r="E53" s="29"/>
       <c r="F53" s="30" t="s">
@@ -3716,7 +3848,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="54" spans="4:28">
       <c r="D54" s="14"/>
       <c r="E54" s="29"/>
       <c r="F54" s="30" t="s">
@@ -3730,7 +3862,7 @@
       <c r="J54" s="15"/>
       <c r="K54" s="16"/>
     </row>
-    <row r="55" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="55" spans="4:28">
       <c r="D55" s="14"/>
       <c r="E55" s="32"/>
       <c r="F55" s="33" t="s">
@@ -3747,7 +3879,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="56" spans="4:28">
       <c r="D56" s="14"/>
       <c r="E56" s="32"/>
       <c r="F56" s="33" t="s">
@@ -3775,7 +3907,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="57" spans="4:28">
       <c r="D57" s="14"/>
       <c r="E57" s="29"/>
       <c r="F57" s="30" t="s">
@@ -3790,7 +3922,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="58" spans="4:28">
       <c r="D58" s="14"/>
       <c r="E58" s="32"/>
       <c r="F58" s="33" t="s">
@@ -3808,7 +3940,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="59" spans="4:28">
       <c r="D59" s="14"/>
       <c r="E59" s="32"/>
       <c r="F59" s="33" t="s">
@@ -3825,7 +3957,7 @@
       <c r="X59" s="46"/>
       <c r="Y59" s="47"/>
     </row>
-    <row r="60" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="60" spans="4:28">
       <c r="D60" s="14"/>
       <c r="E60" s="32"/>
       <c r="F60" s="33" t="s">
@@ -3857,7 +3989,7 @@
       <c r="AA60" s="46"/>
       <c r="AB60" s="47"/>
     </row>
-    <row r="61" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="61" spans="4:28">
       <c r="D61" s="14"/>
       <c r="E61" s="32"/>
       <c r="F61" s="33" t="s">
@@ -3887,7 +4019,7 @@
       <c r="AA61" s="46"/>
       <c r="AB61" s="47"/>
     </row>
-    <row r="62" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="62" spans="4:28">
       <c r="D62" s="14"/>
       <c r="E62" s="32"/>
       <c r="F62" s="33" t="s">
@@ -3899,7 +4031,7 @@
       <c r="J62" s="15"/>
       <c r="K62" s="16"/>
     </row>
-    <row r="63" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="63" spans="4:28">
       <c r="D63" s="14"/>
       <c r="E63" s="32"/>
       <c r="F63" s="33" t="s">
@@ -3917,7 +4049,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="64" spans="4:28">
       <c r="D64" s="14"/>
       <c r="E64" s="32"/>
       <c r="F64" s="33" t="s">
@@ -3929,7 +4061,7 @@
       <c r="J64" s="15"/>
       <c r="K64" s="16"/>
     </row>
-    <row r="65" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="65" spans="4:28">
       <c r="D65" s="14"/>
       <c r="E65" s="32"/>
       <c r="F65" s="33" t="s">
@@ -3948,7 +4080,7 @@
       <c r="X65" s="46"/>
       <c r="Y65" s="47"/>
     </row>
-    <row r="66" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="66" spans="4:28">
       <c r="D66" s="14"/>
       <c r="E66" s="32"/>
       <c r="F66" s="33" t="s">
@@ -3980,7 +4112,7 @@
       <c r="AA66" s="46"/>
       <c r="AB66" s="47"/>
     </row>
-    <row r="67" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="67" spans="4:28">
       <c r="D67" s="14"/>
       <c r="E67" s="32"/>
       <c r="F67" s="33" t="s">
@@ -4012,7 +4144,7 @@
       <c r="AA67" s="46"/>
       <c r="AB67" s="47"/>
     </row>
-    <row r="68" spans="4:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:28" ht="16.5" thickBot="1">
       <c r="D68" s="23"/>
       <c r="E68" s="24"/>
       <c r="F68" s="24"/>
@@ -4025,13 +4157,13 @@
         <v>111</v>
       </c>
     </row>
-    <row r="69" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="69" spans="4:28">
       <c r="W69" s="48" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="4:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="71" spans="4:28" ht="16.5" thickBot="1"/>
+    <row r="72" spans="4:28">
       <c r="D72" s="11"/>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
@@ -4041,7 +4173,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="13"/>
     </row>
-    <row r="73" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="73" spans="4:28">
       <c r="D73" s="14"/>
       <c r="E73" s="26" t="s">
         <v>137</v>
@@ -4053,7 +4185,7 @@
       <c r="J73" s="15"/>
       <c r="K73" s="16"/>
     </row>
-    <row r="74" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="74" spans="4:28">
       <c r="D74" s="14"/>
       <c r="E74" s="32"/>
       <c r="F74" s="33" t="s">
@@ -4065,7 +4197,7 @@
       <c r="J74" s="15"/>
       <c r="K74" s="16"/>
     </row>
-    <row r="75" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="75" spans="4:28">
       <c r="D75" s="14"/>
       <c r="E75" s="32"/>
       <c r="F75" s="33" t="s">
@@ -4080,7 +4212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="76" spans="4:28">
       <c r="D76" s="14"/>
       <c r="E76" s="32"/>
       <c r="F76" s="33" t="s">
@@ -4092,7 +4224,7 @@
       <c r="J76" s="15"/>
       <c r="K76" s="16"/>
     </row>
-    <row r="77" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="77" spans="4:28">
       <c r="D77" s="14"/>
       <c r="E77" s="32"/>
       <c r="F77" s="33"/>
@@ -4102,7 +4234,7 @@
       <c r="J77" s="15"/>
       <c r="K77" s="16"/>
     </row>
-    <row r="78" spans="4:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:28" ht="16.5" thickBot="1">
       <c r="D78" s="23"/>
       <c r="E78" s="24"/>
       <c r="F78" s="24"/>
@@ -4112,7 +4244,7 @@
       <c r="J78" s="24"/>
       <c r="K78" s="25"/>
     </row>
-    <row r="79" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="79" spans="4:28">
       <c r="D79" s="15"/>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
@@ -4122,7 +4254,7 @@
       <c r="J79" s="15"/>
       <c r="K79" s="15"/>
     </row>
-    <row r="80" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="80" spans="4:28">
       <c r="D80" s="15"/>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
@@ -4132,7 +4264,7 @@
       <c r="J80" s="15"/>
       <c r="K80" s="15"/>
     </row>
-    <row r="81" spans="4:20" x14ac:dyDescent="0.15">
+    <row r="81" spans="4:20">
       <c r="D81" s="15"/>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
@@ -4142,7 +4274,7 @@
       <c r="J81" s="15"/>
       <c r="K81" s="15"/>
     </row>
-    <row r="82" spans="4:20" x14ac:dyDescent="0.15">
+    <row r="82" spans="4:20">
       <c r="D82" s="15"/>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
@@ -4155,7 +4287,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="83" spans="4:20" x14ac:dyDescent="0.15">
+    <row r="83" spans="4:20">
       <c r="D83" s="15"/>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
@@ -4165,7 +4297,7 @@
       <c r="J83" s="15"/>
       <c r="K83" s="15"/>
     </row>
-    <row r="84" spans="4:20" x14ac:dyDescent="0.15">
+    <row r="84" spans="4:20">
       <c r="D84" s="15"/>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
@@ -4175,7 +4307,7 @@
       <c r="J84" s="15"/>
       <c r="K84" s="15"/>
     </row>
-    <row r="85" spans="4:20" x14ac:dyDescent="0.15">
+    <row r="85" spans="4:20">
       <c r="D85" s="15"/>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
@@ -4185,7 +4317,7 @@
       <c r="J85" s="15"/>
       <c r="K85" s="15"/>
     </row>
-    <row r="86" spans="4:20" x14ac:dyDescent="0.15">
+    <row r="86" spans="4:20">
       <c r="D86" s="15"/>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
@@ -4195,7 +4327,7 @@
       <c r="J86" s="15"/>
       <c r="K86" s="15"/>
     </row>
-    <row r="87" spans="4:20" x14ac:dyDescent="0.15">
+    <row r="87" spans="4:20">
       <c r="D87" s="15"/>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
@@ -4205,7 +4337,7 @@
       <c r="J87" s="15"/>
       <c r="K87" s="15"/>
     </row>
-    <row r="88" spans="4:20" x14ac:dyDescent="0.15">
+    <row r="88" spans="4:20">
       <c r="D88" s="15"/>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
@@ -4229,9 +4361,9 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="6" spans="3:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:6" ht="15.75">
       <c r="C6" s="26" t="s">
         <v>74</v>
       </c>
@@ -4239,7 +4371,7 @@
       <c r="E6" s="27"/>
       <c r="F6" s="28"/>
     </row>
-    <row r="7" spans="3:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:6" ht="15.75">
       <c r="C7" s="29"/>
       <c r="D7" s="30" t="s">
         <v>76</v>
@@ -4247,7 +4379,7 @@
       <c r="E7" s="30"/>
       <c r="F7" s="31"/>
     </row>
-    <row r="8" spans="3:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:6" ht="15.75">
       <c r="C8" s="32"/>
       <c r="D8" s="33" t="s">
         <v>77</v>
@@ -4255,7 +4387,7 @@
       <c r="E8" s="33"/>
       <c r="F8" s="34"/>
     </row>
-    <row r="9" spans="3:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:6" ht="15.75">
       <c r="C9" s="32"/>
       <c r="D9" s="33" t="s">
         <v>79</v>
@@ -4263,7 +4395,7 @@
       <c r="E9" s="33"/>
       <c r="F9" s="34"/>
     </row>
-    <row r="10" spans="3:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:6" ht="15.75">
       <c r="C10" s="32"/>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
@@ -4283,9 +4415,9 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:5">
       <c r="B21" t="s">
         <v>145</v>
       </c>
@@ -4293,7 +4425,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:5">
       <c r="C22" t="s">
         <v>146</v>
       </c>
@@ -4301,17 +4433,17 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:5">
       <c r="C23" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:5">
       <c r="C24" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:5">
       <c r="C25" t="s">
         <v>149</v>
       </c>
@@ -4325,13 +4457,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:R46"/>
+  <dimension ref="A4:U109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K25" sqref="A21:K25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="2" width="9" style="49"/>
     <col min="3" max="3" width="10.625" style="49" customWidth="1"/>
@@ -4340,11 +4472,15 @@
     <col min="9" max="10" width="9" style="49"/>
     <col min="11" max="11" width="17" style="49" customWidth="1"/>
     <col min="12" max="13" width="16.125" style="49" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="49"/>
+    <col min="14" max="14" width="5.125" style="49" customWidth="1"/>
+    <col min="15" max="16" width="9" style="49"/>
+    <col min="17" max="17" width="16" style="49" customWidth="1"/>
+    <col min="18" max="18" width="10.875" style="49" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="49"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="2:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:19" ht="12.75" thickBot="1"/>
+    <row r="5" spans="2:19" ht="12.75" thickBot="1">
       <c r="B5" s="53"/>
       <c r="C5" s="54"/>
       <c r="D5" s="54"/>
@@ -4354,16 +4490,16 @@
       <c r="H5" s="54"/>
       <c r="I5" s="56"/>
       <c r="J5" s="49" t="s">
-        <v>236</v>
-      </c>
-      <c r="O5" s="49" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+      <c r="P5" s="49" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="12.75" thickBot="1">
       <c r="B6" s="57"/>
       <c r="C6" s="51" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D6" s="63" t="s">
         <v>151</v>
@@ -4379,22 +4515,22 @@
         <v>0</v>
       </c>
       <c r="L6" s="49" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="M6" s="49" t="s">
-        <v>234</v>
-      </c>
-      <c r="N6" s="49" t="s">
-        <v>201</v>
-      </c>
-      <c r="P6" s="49" t="s">
-        <v>230</v>
-      </c>
-      <c r="R6" s="49" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+      <c r="O6" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q6" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="S6" s="49" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="12.75" thickBot="1">
       <c r="B7" s="57"/>
       <c r="C7" s="51" t="s">
         <v>167</v>
@@ -4406,22 +4542,22 @@
       <c r="H7" s="51"/>
       <c r="I7" s="58"/>
       <c r="K7" s="49" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L7" s="49" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="M7" s="49" t="s">
-        <v>235</v>
-      </c>
-      <c r="P7" s="49" t="s">
-        <v>231</v>
-      </c>
-      <c r="R7" s="49" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+      <c r="Q7" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="S7" s="49" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="12.75" thickBot="1">
       <c r="B8" s="57"/>
       <c r="C8" s="51" t="s">
         <v>168</v>
@@ -4433,22 +4569,22 @@
       <c r="H8" s="51"/>
       <c r="I8" s="58"/>
       <c r="K8" s="49" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L8" s="49" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="M8" s="49" t="s">
-        <v>235</v>
-      </c>
-      <c r="R8" s="49" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="9" spans="2:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="S8" s="49" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" ht="12.75" thickBot="1">
       <c r="B9" s="57"/>
       <c r="C9" s="51" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -4457,16 +4593,16 @@
       <c r="H9" s="51"/>
       <c r="I9" s="58"/>
       <c r="K9" s="49" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="M9" s="49" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="12.75" thickBot="1">
       <c r="B10" s="57"/>
       <c r="C10" s="51"/>
       <c r="D10" s="50"/>
@@ -4478,16 +4614,16 @@
       </c>
       <c r="I10" s="58"/>
       <c r="K10" s="49" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L10" s="49" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="M10" s="49" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="12.75" thickBot="1">
       <c r="B11" s="59"/>
       <c r="C11" s="60"/>
       <c r="D11" s="52"/>
@@ -4497,16 +4633,16 @@
       <c r="H11" s="60"/>
       <c r="I11" s="61"/>
       <c r="K11" s="49" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L11" s="49" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="M11" s="49" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" ht="12.75" thickBot="1">
       <c r="B12" s="53"/>
       <c r="C12" s="54"/>
       <c r="D12" s="55"/>
@@ -4516,10 +4652,10 @@
       <c r="H12" s="54"/>
       <c r="I12" s="56"/>
       <c r="J12" s="49" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" ht="12.75" thickBot="1">
       <c r="B13" s="57"/>
       <c r="C13" s="51" t="s">
         <v>152</v>
@@ -4537,15 +4673,24 @@
       <c r="K13" s="49" t="s">
         <v>0</v>
       </c>
+      <c r="L13" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="M13" s="49" t="s">
+        <v>228</v>
+      </c>
       <c r="N13" s="49" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.15">
+        <v>246</v>
+      </c>
+      <c r="O13" s="49" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19">
       <c r="B14" s="57"/>
       <c r="C14" s="51"/>
       <c r="D14" s="49" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E14" s="51"/>
       <c r="F14" s="51"/>
@@ -4555,11 +4700,20 @@
       <c r="K14" s="51" t="s">
         <v>152</v>
       </c>
+      <c r="L14" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="M14" s="49" t="s">
+        <v>228</v>
+      </c>
       <c r="N14" s="49" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.15">
+        <v>246</v>
+      </c>
+      <c r="O14" s="49" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19">
       <c r="B15" s="57"/>
       <c r="C15" s="51"/>
       <c r="D15" s="51"/>
@@ -4569,10 +4723,19 @@
       <c r="H15" s="51"/>
       <c r="I15" s="58"/>
       <c r="K15" s="51" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+      <c r="L15" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="M15" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="N15" s="49" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19">
       <c r="B16" s="57"/>
       <c r="C16" s="51" t="s">
         <v>163</v>
@@ -4584,10 +4747,19 @@
       <c r="H16" s="51"/>
       <c r="I16" s="58"/>
       <c r="K16" s="51" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.15">
+        <v>211</v>
+      </c>
+      <c r="L16" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="M16" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="N16" s="49" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21">
       <c r="B17" s="57"/>
       <c r="C17" s="51"/>
       <c r="D17" s="51"/>
@@ -4599,14 +4771,23 @@
       <c r="H17" s="51"/>
       <c r="I17" s="58"/>
       <c r="K17" s="49" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.15">
+        <v>207</v>
+      </c>
+      <c r="L17" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="M17" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="N17" s="49" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21">
       <c r="B18" s="57"/>
       <c r="C18" s="51"/>
       <c r="D18" s="51" t="s">
-        <v>174</v>
+        <v>272</v>
       </c>
       <c r="E18" s="51"/>
       <c r="F18" s="51"/>
@@ -4614,10 +4795,19 @@
       <c r="H18" s="51"/>
       <c r="I18" s="58"/>
       <c r="K18" s="49" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+      <c r="L18" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="M18" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="N18" s="49" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21">
       <c r="B19" s="57"/>
       <c r="C19" s="51"/>
       <c r="D19" s="51"/>
@@ -4633,14 +4823,23 @@
       <c r="H19" s="50"/>
       <c r="I19" s="58"/>
       <c r="K19" s="49" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.15">
+        <v>206</v>
+      </c>
+      <c r="L19" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="M19" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="N19" s="49" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21">
       <c r="B20" s="57"/>
       <c r="C20" s="51"/>
       <c r="D20" s="51" t="s">
-        <v>176</v>
+        <v>273</v>
       </c>
       <c r="E20" s="51"/>
       <c r="F20" s="51"/>
@@ -4648,7 +4847,7 @@
       <c r="H20" s="51"/>
       <c r="I20" s="58"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:21">
       <c r="B21" s="57"/>
       <c r="C21" s="51"/>
       <c r="D21" s="51"/>
@@ -4666,39 +4865,57 @@
       </c>
       <c r="I21" s="58"/>
       <c r="J21" s="49" t="s">
-        <v>218</v>
-      </c>
-      <c r="O21" s="49" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.15">
+        <v>257</v>
+      </c>
+      <c r="P21" s="49" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21">
       <c r="B22" s="57"/>
       <c r="C22" s="51"/>
       <c r="D22" s="51" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E22" s="51"/>
       <c r="F22" s="51"/>
       <c r="G22" s="77" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H22" s="51"/>
       <c r="I22" s="58"/>
       <c r="K22" s="49" t="s">
         <v>0</v>
       </c>
+      <c r="L22" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="M22" s="49" t="s">
+        <v>228</v>
+      </c>
       <c r="N22" s="49" t="s">
-        <v>201</v>
-      </c>
-      <c r="P22" s="49" t="s">
-        <v>223</v>
+        <v>246</v>
+      </c>
+      <c r="O22" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q22" s="49" t="s">
+        <v>217</v>
       </c>
       <c r="R22" s="49" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.15">
+        <v>226</v>
+      </c>
+      <c r="S22" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="T22" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="U22" s="49" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21">
       <c r="B23" s="57"/>
       <c r="C23" s="51"/>
       <c r="D23" s="51"/>
@@ -4716,16 +4933,34 @@
       </c>
       <c r="I23" s="58"/>
       <c r="K23" s="51" t="s">
-        <v>152</v>
+        <v>275</v>
+      </c>
+      <c r="L23" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="M23" s="49" t="s">
+        <v>228</v>
       </c>
       <c r="N23" s="49" t="s">
-        <v>201</v>
-      </c>
-      <c r="P23" s="49" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="O23" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q23" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="R23" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="S23" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="T23" s="49" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" ht="12.75" thickBot="1">
       <c r="B24" s="57"/>
       <c r="C24" s="51" t="s">
         <v>170</v>
@@ -4737,19 +4972,37 @@
       <c r="H24" s="50"/>
       <c r="I24" s="58"/>
       <c r="K24" s="49" t="s">
-        <v>221</v>
+        <v>215</v>
+      </c>
+      <c r="L24" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="M24" s="49" t="s">
+        <v>228</v>
       </c>
       <c r="N24" s="49" t="s">
-        <v>201</v>
-      </c>
-      <c r="P24" s="49" t="s">
-        <v>212</v>
+        <v>246</v>
+      </c>
+      <c r="O24" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q24" s="49" t="s">
+        <v>208</v>
       </c>
       <c r="R24" s="49" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="25" spans="2:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+      <c r="S24" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="T24" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="U24" s="49" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" ht="12.75" thickBot="1">
       <c r="B25" s="57"/>
       <c r="C25" s="51"/>
       <c r="D25" s="69"/>
@@ -4763,13 +5016,31 @@
       <c r="H25" s="50"/>
       <c r="I25" s="58"/>
       <c r="K25" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="P25" s="49" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="26" spans="2:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+      <c r="L25" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="M25" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="N25" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q25" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="R25" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="S25" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="T25" s="49" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" ht="12.75" thickBot="1">
       <c r="B26" s="57"/>
       <c r="C26" s="51"/>
       <c r="D26" s="51"/>
@@ -4779,13 +5050,31 @@
       <c r="H26" s="50"/>
       <c r="I26" s="58"/>
       <c r="K26" s="49" t="s">
-        <v>214</v>
-      </c>
-      <c r="P26" s="49" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="27" spans="2:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+      <c r="L26" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="M26" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="N26" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q26" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="R26" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="S26" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="T26" s="49" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" ht="12.75" thickBot="1">
       <c r="B27" s="57"/>
       <c r="C27" s="51"/>
       <c r="D27" s="51"/>
@@ -4797,13 +5086,31 @@
       </c>
       <c r="I27" s="58"/>
       <c r="K27" s="49" t="s">
-        <v>217</v>
-      </c>
-      <c r="P27" s="49" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="28" spans="2:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+      <c r="L27" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="M27" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="N27" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q27" s="49" t="s">
+        <v>214</v>
+      </c>
+      <c r="R27" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="S27" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="T27" s="49" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" ht="12.75" thickBot="1">
       <c r="B28" s="59"/>
       <c r="C28" s="60"/>
       <c r="D28" s="60"/>
@@ -4813,17 +5120,35 @@
       <c r="H28" s="60"/>
       <c r="I28" s="61"/>
       <c r="K28" s="49" t="s">
+        <v>212</v>
+      </c>
+      <c r="L28" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="M28" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="N28" s="49" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" ht="12.75" thickBot="1">
+      <c r="K29" s="49" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="29" spans="2:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="K29" s="49" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="30" spans="2:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="L29" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="M29" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="N29" s="49" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" ht="12.75" thickBot="1">
       <c r="C30" s="71" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D30" s="74"/>
       <c r="E30" s="76">
@@ -4833,210 +5158,613 @@
       <c r="G30" s="65"/>
       <c r="H30" s="66"/>
       <c r="K30" s="49" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.15">
+        <v>220</v>
+      </c>
+      <c r="L30" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="M30" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="N30" s="49" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21">
       <c r="C31" s="71" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.15">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16">
       <c r="C33" s="49" t="s">
         <v>173</v>
       </c>
       <c r="H33" s="71" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="34" spans="3:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="3:16" ht="12.75" thickBot="1">
       <c r="D34" s="49" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="35" spans="3:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="3:16" ht="12.75" thickBot="1">
       <c r="E35" s="50" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F35" s="49" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H35" s="73">
         <v>0.2</v>
       </c>
       <c r="J35" s="78" t="s">
+        <v>188</v>
+      </c>
+      <c r="K35" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="L35" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="K35" s="78" t="s">
-        <v>191</v>
-      </c>
-      <c r="L35" s="78" t="s">
-        <v>192</v>
-      </c>
-      <c r="M35" s="82"/>
-      <c r="O35" s="49" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="36" spans="3:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="M35" s="80"/>
+      <c r="N35" s="80"/>
+      <c r="P35" s="49" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16" ht="12.75" thickBot="1">
       <c r="E36" s="50" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F36" s="49" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H36" s="72"/>
       <c r="J36" s="78" t="s">
+        <v>188</v>
+      </c>
+      <c r="K36" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="L36" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="K36" s="78" t="s">
-        <v>191</v>
-      </c>
-      <c r="L36" s="78" t="s">
-        <v>192</v>
-      </c>
-      <c r="M36" s="82"/>
-    </row>
-    <row r="37" spans="3:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="M36" s="80"/>
+      <c r="N36" s="80"/>
+    </row>
+    <row r="37" spans="3:16" ht="12.75" thickBot="1">
       <c r="D37" s="49" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="38" spans="3:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="3:16" ht="12.75" thickBot="1">
       <c r="E38" s="50" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F38" s="49" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H38" s="72"/>
       <c r="J38" s="78" t="s">
+        <v>188</v>
+      </c>
+      <c r="K38" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="L38" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="K38" s="78" t="s">
-        <v>191</v>
-      </c>
-      <c r="L38" s="78" t="s">
-        <v>192</v>
-      </c>
-      <c r="M38" s="82"/>
-    </row>
-    <row r="39" spans="3:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="M38" s="80"/>
+      <c r="N38" s="80"/>
+    </row>
+    <row r="39" spans="3:16" ht="12.75" thickBot="1">
       <c r="E39" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="F39" s="49" t="s">
         <v>183</v>
-      </c>
-      <c r="F39" s="49" t="s">
-        <v>185</v>
       </c>
       <c r="H39" s="72"/>
       <c r="J39" s="78" t="s">
+        <v>188</v>
+      </c>
+      <c r="K39" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="L39" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="K39" s="78" t="s">
-        <v>191</v>
-      </c>
-      <c r="L39" s="78" t="s">
-        <v>192</v>
-      </c>
-      <c r="M39" s="82"/>
-    </row>
-    <row r="40" spans="3:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="M39" s="80"/>
+      <c r="N39" s="80"/>
+    </row>
+    <row r="40" spans="3:16" ht="12.75" thickBot="1">
       <c r="D40" s="49" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="3:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:16" ht="12.75" thickBot="1">
       <c r="E41" s="50" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F41" s="49" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H41" s="72"/>
       <c r="J41" s="78" t="s">
+        <v>188</v>
+      </c>
+      <c r="K41" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="L41" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="K41" s="78" t="s">
-        <v>191</v>
-      </c>
-      <c r="L41" s="78" t="s">
-        <v>192</v>
-      </c>
-      <c r="M41" s="82"/>
-    </row>
-    <row r="42" spans="3:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="M41" s="80"/>
+      <c r="N41" s="80"/>
+    </row>
+    <row r="42" spans="3:16" ht="12.75" thickBot="1">
       <c r="E42" s="79" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F42" s="49" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H42" s="72"/>
       <c r="J42" s="78" t="s">
+        <v>188</v>
+      </c>
+      <c r="K42" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="L42" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="K42" s="78" t="s">
+      <c r="M42" s="80"/>
+      <c r="N42" s="80"/>
+      <c r="P42" s="71" t="s">
         <v>191</v>
       </c>
-      <c r="L42" s="78" t="s">
-        <v>192</v>
-      </c>
-      <c r="M42" s="82"/>
-      <c r="O42" s="71" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="43" spans="3:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="3:16" ht="12.75" thickBot="1">
       <c r="E43" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="F43" s="49" t="s">
         <v>183</v>
-      </c>
-      <c r="F43" s="49" t="s">
-        <v>185</v>
       </c>
       <c r="H43" s="72"/>
       <c r="J43" s="78" t="s">
+        <v>188</v>
+      </c>
+      <c r="K43" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="L43" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="K43" s="78" t="s">
-        <v>191</v>
-      </c>
-      <c r="L43" s="78" t="s">
+      <c r="M43" s="80"/>
+      <c r="N43" s="80"/>
+      <c r="P43" s="71" t="s">
         <v>192</v>
       </c>
-      <c r="M43" s="82"/>
-      <c r="O43" s="71" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="44" spans="3:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="3:16" ht="12.75" thickBot="1">
       <c r="E44" s="50" t="s">
         <v>161</v>
       </c>
       <c r="F44" s="49" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H44" s="72"/>
       <c r="J44" s="78" t="s">
+        <v>188</v>
+      </c>
+      <c r="K44" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="L44" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="K44" s="78" t="s">
-        <v>191</v>
-      </c>
-      <c r="L44" s="78" t="s">
-        <v>192</v>
-      </c>
-      <c r="M44" s="82"/>
-      <c r="O44" s="49" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="M44" s="80"/>
+      <c r="N44" s="80"/>
+      <c r="P44" s="49" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46" spans="3:16">
       <c r="C46" s="49" t="s">
-        <v>198</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="49" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="C59" s="49" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="B60" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="C60" s="49" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="B61" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="C61" s="49" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="B62" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="C62" s="49" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="B63" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="C63" s="49" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="B64" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="C64" s="49" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="49" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="B67" s="49" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="49" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="C73" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="D73" s="49" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="49" t="s">
+        <v>249</v>
+      </c>
+      <c r="B74" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="C74" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="D74" s="49" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="49" t="s">
+        <v>250</v>
+      </c>
+      <c r="B75" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="C75" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="D75" s="49" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="49" t="s">
+        <v>251</v>
+      </c>
+      <c r="B76" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="C76" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="D76" s="49" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="49" t="s">
+        <v>252</v>
+      </c>
+      <c r="B77" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="C77" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="D77" s="49" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="49" t="s">
+        <v>253</v>
+      </c>
+      <c r="B78" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="C78" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="D78" s="49" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="B79" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="C79" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="D79" s="49" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="49" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="B83" s="49" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="B84" s="49" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="49" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="49" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="C94" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="D94" s="49" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="B95" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="C95" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="D95" s="49" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="49" t="s">
+        <v>269</v>
+      </c>
+      <c r="B96" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="C96" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="D96" s="49" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="49" t="s">
+        <v>259</v>
+      </c>
+      <c r="B97" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="C97" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="D97" s="49" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="49" t="s">
+        <v>260</v>
+      </c>
+      <c r="B98" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="C98" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="D98" s="49" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="49" t="s">
+        <v>261</v>
+      </c>
+      <c r="B99" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="C99" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="D99" s="49" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="49" t="s">
+        <v>262</v>
+      </c>
+      <c r="B100" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="C100" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="D100" s="49" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="49" t="s">
+        <v>263</v>
+      </c>
+      <c r="B101" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="C101" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="D101" s="49" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="B102" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="C102" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="D102" s="49" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="49" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="B107" s="49" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="49" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="49" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AutoDo/仕様.xlsx
+++ b/AutoDo/仕様.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ILIKEMAKE2017\AutoMakeCode\AutoCode\slnAC\AutoDo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="11205" activeTab="5"/>
   </bookViews>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="277">
   <si>
     <t>edp_no</t>
   </si>
@@ -830,10 +825,6 @@
     <t>結合テスト仕様書</t>
   </si>
   <si>
-    <t>ソース□</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>作成必要PGM</t>
     <rPh sb="0" eb="2">
       <t>サクセイ</t>
@@ -1081,239 +1072,245 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>pgm_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pgm_level</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kinou_kbn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pgm_demo_path</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pgm_last_upd_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pgm_bunrui_cd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pgm_bunrui_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m_list_info</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pgm_staus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未着手、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成中、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本側検証中</t>
+  </si>
+  <si>
+    <t>km_no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>km_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>m_ankan_kihon_info</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CREATE TABLE [dbo].[m_ankan_kihon_info](</t>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+  </si>
+  <si>
+    <t>NOT NULL,</t>
+  </si>
+  <si>
+    <t>server_siryou_path</t>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
+  </si>
+  <si>
+    <t>NULL,</t>
+  </si>
+  <si>
+    <t>client_siryou_path</t>
+  </si>
+  <si>
+    <t>code_path1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CONSTRAINT [PK_m_ankan_kihon_info] PRIMARY KEY CLUSTERED </t>
+  </si>
+  <si>
+    <t>[edp_no] ASC</t>
+  </si>
+  <si>
+    <t>)WITH (PAD_INDEX  = OFF, STATISTICS_NORECOMPUTE  = OFF, IGNORE_DUP_KEY = OFF, ALLOW_ROW_LOCKS  = ON, ALLOW_PAGE_LOCKS  = ON) ON [PRIMARY]</t>
+  </si>
+  <si>
+    <t>[numeric](9, 0)</t>
+  </si>
+  <si>
+    <t>nvarchar(1)</t>
+  </si>
+  <si>
+    <t>nvarchar(1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m_ankan_kinou_info</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CREATE TABLE [dbo].[m_ankan_kinou_info](</t>
+  </si>
+  <si>
+    <t>kinou_no</t>
+  </si>
+  <si>
+    <t>kinou_mei</t>
+  </si>
+  <si>
+    <t>kinou_kbn</t>
+  </si>
+  <si>
+    <t>yotei_kousuu</t>
+  </si>
+  <si>
+    <t>yotei_start_date</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>yotei_end_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CONSTRAINT [PK_m_ankan_kinou_info] PRIMARY KEY CLUSTERED </t>
+  </si>
+  <si>
+    <t>CREATE TABLE [dbo].[m_ankan_pgm_info](</t>
+  </si>
+  <si>
+    <t>pgm_name</t>
+  </si>
+  <si>
+    <t>pgm_level</t>
+  </si>
+  <si>
+    <t>pgm_santaku_flg</t>
+  </si>
+  <si>
+    <t>pgm_sinntyoku_retu</t>
+  </si>
+  <si>
+    <t>pgm_last_upd_date</t>
+  </si>
+  <si>
+    <t>pgm_staus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CONSTRAINT [PK_m_ankan_pgm_info] PRIMARY KEY CLUSTERED </t>
+  </si>
+  <si>
+    <t>[edp_no] ASC,</t>
+  </si>
+  <si>
+    <t>kinou_no ASC</t>
+  </si>
+  <si>
+    <t>kinou_no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>pgm_id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>pgm_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pgm_level</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>kinou_kbn</t>
+    <t>[edp_no] ASC,kinou_no ASC,pgm_id ASC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m_ankan_pgm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pgm_santaku_flg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kinou_no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pgm_id</t>
+  </si>
+  <si>
+    <t>[edp_no] ASC,kinou_no ASC,pgm_id ASC</t>
+  </si>
+  <si>
+    <t>外部仕様設計</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内部仕様設計</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソース□</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pgm_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m_ankan_pgm_info</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>edp_no</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>pgm_sinntyoku_retu</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pgm_level</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pgm_demo_path</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pgm_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pgm_last_upd_date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pgm_bunrui_cd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pgm_bunrui_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>m_list_info</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pgm_staus</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>未着手、</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成中、</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日本側検証中</t>
-  </si>
-  <si>
-    <t>km_no</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>km_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>nvarchar(500)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>m_ankan_kihon_info</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CREATE TABLE [dbo].[m_ankan_kihon_info](</t>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-  </si>
-  <si>
-    <t>NOT NULL,</t>
-  </si>
-  <si>
-    <t>server_siryou_path</t>
-  </si>
-  <si>
-    <t>nvarchar(500)</t>
-  </si>
-  <si>
-    <t>NULL,</t>
-  </si>
-  <si>
-    <t>client_siryou_path</t>
-  </si>
-  <si>
-    <t>code_path1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CONSTRAINT [PK_m_ankan_kihon_info] PRIMARY KEY CLUSTERED </t>
-  </si>
-  <si>
-    <t>[edp_no] ASC</t>
-  </si>
-  <si>
-    <t>)WITH (PAD_INDEX  = OFF, STATISTICS_NORECOMPUTE  = OFF, IGNORE_DUP_KEY = OFF, ALLOW_ROW_LOCKS  = ON, ALLOW_PAGE_LOCKS  = ON) ON [PRIMARY]</t>
-  </si>
-  <si>
-    <t>[numeric](9, 0)</t>
-  </si>
-  <si>
-    <t>nvarchar(1)</t>
-  </si>
-  <si>
-    <t>nvarchar(1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>,</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>m_ankan_kinou_info</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CREATE TABLE [dbo].[m_ankan_kinou_info](</t>
-  </si>
-  <si>
-    <t>kinou_no</t>
-  </si>
-  <si>
-    <t>kinou_mei</t>
-  </si>
-  <si>
-    <t>kinou_kbn</t>
-  </si>
-  <si>
-    <t>yotei_kousuu</t>
-  </si>
-  <si>
-    <t>yotei_start_date</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>yotei_end_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CONSTRAINT [PK_m_ankan_kinou_info] PRIMARY KEY CLUSTERED </t>
-  </si>
-  <si>
-    <t>m_ankan_pgm_info</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CREATE TABLE [dbo].[m_ankan_pgm_info](</t>
-  </si>
-  <si>
-    <t>pgm_name</t>
-  </si>
-  <si>
-    <t>pgm_level</t>
-  </si>
-  <si>
-    <t>pgm_santaku_flg</t>
-  </si>
-  <si>
-    <t>pgm_sinntyoku_retu</t>
-  </si>
-  <si>
-    <t>pgm_last_upd_date</t>
-  </si>
-  <si>
-    <t>pgm_staus</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CONSTRAINT [PK_m_ankan_pgm_info] PRIMARY KEY CLUSTERED </t>
-  </si>
-  <si>
-    <t>[edp_no] ASC,</t>
-  </si>
-  <si>
-    <t>kinou_no ASC</t>
-  </si>
-  <si>
-    <t>kinou_no</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pgm_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[edp_no] ASC,kinou_no ASC,pgm_id ASC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>m_ankan_pgm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>外部仕様設計</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>内部仕様設計</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pgm_santaku_flg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>kinou_no</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1321,18 +1318,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1928,7 +1925,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2120,7 +2117,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2162,7 +2159,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2197,7 +2194,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2412,12 +2409,12 @@
       <selection activeCell="D4" sqref="D4:R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="5" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="5" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:18" ht="18" customHeight="1">
+    <row r="4" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D4" s="81" t="s">
         <v>5</v>
       </c>
@@ -2438,7 +2435,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="4:18" ht="18" customHeight="1">
+    <row r="5" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
@@ -2461,7 +2458,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="4:18" ht="18" customHeight="1">
+    <row r="6" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
@@ -2482,7 +2479,7 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="4:18" ht="18" customHeight="1">
+    <row r="7" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
@@ -2503,7 +2500,7 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="4:18" ht="18" customHeight="1">
+    <row r="8" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -2520,7 +2517,7 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="4:18" ht="18" customHeight="1">
+    <row r="9" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -2537,7 +2534,7 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="4:18" ht="18" customHeight="1">
+    <row r="10" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="81" t="s">
         <v>14</v>
       </c>
@@ -2562,7 +2559,7 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" spans="4:18" ht="18" customHeight="1">
+    <row r="11" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
@@ -2587,7 +2584,7 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="4:18" ht="18" customHeight="1">
+    <row r="12" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
@@ -2612,7 +2609,7 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" spans="4:18" ht="18" customHeight="1">
+    <row r="13" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D13" s="3" t="s">
         <v>21</v>
       </c>
@@ -2635,7 +2632,7 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" spans="4:18" ht="18" customHeight="1">
+    <row r="14" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="3" t="s">
         <v>23</v>
       </c>
@@ -2660,7 +2657,7 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
-    <row r="15" spans="4:18" ht="18" customHeight="1">
+    <row r="15" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D15" s="3" t="s">
         <v>26</v>
       </c>
@@ -2685,7 +2682,7 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16" spans="4:18" ht="18" customHeight="1">
+    <row r="16" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -2708,7 +2705,7 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
     </row>
-    <row r="17" spans="4:18" ht="18" customHeight="1">
+    <row r="17" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -2727,7 +2724,7 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
     </row>
-    <row r="18" spans="4:18" ht="18" customHeight="1">
+    <row r="18" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2746,7 +2743,7 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
     </row>
-    <row r="19" spans="4:18" ht="18" customHeight="1">
+    <row r="19" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -2765,7 +2762,7 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
     </row>
-    <row r="20" spans="4:18" ht="18" customHeight="1">
+    <row r="20" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -2802,16 +2799,16 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="7" spans="3:5">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C7" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="3:5">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C8" s="7" t="s">
         <v>36</v>
       </c>
@@ -2822,7 +2819,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="3:5">
+    <row r="9" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C9" s="7" t="s">
         <v>39</v>
       </c>
@@ -2833,7 +2830,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="3:5">
+    <row r="10" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C10" s="8" t="s">
         <v>40</v>
       </c>
@@ -2844,7 +2841,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="3:5">
+    <row r="11" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C11" s="8" t="s">
         <v>41</v>
       </c>
@@ -2855,7 +2852,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
+    <row r="12" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C12" s="8" t="s">
         <v>42</v>
       </c>
@@ -2866,7 +2863,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
+    <row r="13" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C13" s="8" t="s">
         <v>43</v>
       </c>
@@ -2877,7 +2874,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="3:5">
+    <row r="14" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C14" s="8" t="s">
         <v>45</v>
       </c>
@@ -2888,7 +2885,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="3:5">
+    <row r="15" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C15" s="8" t="s">
         <v>48</v>
       </c>
@@ -2899,24 +2896,24 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="3:5">
+    <row r="16" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="3:5">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C18" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="3:5">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C19" s="7" t="s">
         <v>150</v>
       </c>
@@ -2927,7 +2924,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C20" s="8" t="s">
         <v>2</v>
       </c>
@@ -2938,7 +2935,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C21" s="8" t="s">
         <v>50</v>
       </c>
@@ -2949,24 +2946,24 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="3:5">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C24" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="3:5">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C25" s="7" t="s">
         <v>52</v>
       </c>
@@ -2977,7 +2974,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="3:5">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C26" s="7" t="s">
         <v>53</v>
       </c>
@@ -2988,7 +2985,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="3:5">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C27" s="7" t="s">
         <v>39</v>
       </c>
@@ -2999,7 +2996,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="3:5">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C28" s="8" t="s">
         <v>54</v>
       </c>
@@ -3024,7 +3021,7 @@
       <selection activeCell="V45" sqref="V45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="1.25" style="10" customWidth="1"/>
     <col min="4" max="4" width="3" style="10" customWidth="1"/>
@@ -3033,13 +3030,13 @@
     <col min="10" max="16384" width="4.5" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="16.5" thickBot="1"/>
-    <row r="6" spans="1:22">
+    <row r="5" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="E6" s="11"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -3052,7 +3049,7 @@
       <c r="N6" s="12"/>
       <c r="O6" s="13"/>
     </row>
-    <row r="7" spans="1:22" ht="16.5" thickBot="1">
+    <row r="7" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="E7" s="14"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
@@ -3065,7 +3062,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="16"/>
     </row>
-    <row r="8" spans="1:22" ht="16.5" thickBot="1">
+    <row r="8" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="E8" s="14"/>
       <c r="F8" s="15"/>
       <c r="G8" s="17" t="s">
@@ -3080,7 +3077,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="16"/>
     </row>
-    <row r="9" spans="1:22" ht="16.5" thickBot="1">
+    <row r="9" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="E9" s="14"/>
       <c r="F9" s="15"/>
       <c r="G9" s="17" t="s">
@@ -3095,7 +3092,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="16"/>
     </row>
-    <row r="10" spans="1:22" ht="16.5" thickBot="1">
+    <row r="10" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="E10" s="14"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
@@ -3108,7 +3105,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="16"/>
     </row>
-    <row r="11" spans="1:22" ht="16.5" thickBot="1">
+    <row r="11" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="E11" s="14"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
@@ -3124,7 +3121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="16.5" thickBot="1">
+    <row r="12" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="E12" s="23"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
@@ -3137,7 +3134,7 @@
       <c r="N12" s="24"/>
       <c r="O12" s="25"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="E14" s="26" t="s">
         <v>58</v>
       </c>
@@ -3145,7 +3142,7 @@
       <c r="G14" s="27"/>
       <c r="H14" s="28"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="E15" s="29"/>
       <c r="F15" s="30" t="s">
         <v>59</v>
@@ -3153,7 +3150,7 @@
       <c r="G15" s="30"/>
       <c r="H15" s="31"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="E16" s="32"/>
       <c r="F16" s="33" t="s">
         <v>60</v>
@@ -3161,7 +3158,7 @@
       <c r="G16" s="33"/>
       <c r="H16" s="34"/>
     </row>
-    <row r="17" spans="5:37">
+    <row r="17" spans="5:37" x14ac:dyDescent="0.15">
       <c r="E17" s="32"/>
       <c r="F17" s="33" t="s">
         <v>61</v>
@@ -3169,7 +3166,7 @@
       <c r="G17" s="33"/>
       <c r="H17" s="34"/>
     </row>
-    <row r="18" spans="5:37">
+    <row r="18" spans="5:37" x14ac:dyDescent="0.15">
       <c r="E18" s="32"/>
       <c r="F18" s="33" t="s">
         <v>62</v>
@@ -3177,8 +3174,8 @@
       <c r="G18" s="33"/>
       <c r="H18" s="34"/>
     </row>
-    <row r="20" spans="5:37" ht="16.5" thickBot="1"/>
-    <row r="21" spans="5:37">
+    <row r="20" spans="5:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="5:37" x14ac:dyDescent="0.15">
       <c r="E21" s="11"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
@@ -3215,7 +3212,7 @@
       <c r="AJ21" s="12"/>
       <c r="AK21" s="13"/>
     </row>
-    <row r="22" spans="5:37">
+    <row r="22" spans="5:37" x14ac:dyDescent="0.15">
       <c r="E22" s="14"/>
       <c r="F22" s="15" t="s">
         <v>64</v>
@@ -3252,7 +3249,7 @@
       <c r="AJ22" s="15"/>
       <c r="AK22" s="16"/>
     </row>
-    <row r="23" spans="5:37">
+    <row r="23" spans="5:37" x14ac:dyDescent="0.15">
       <c r="E23" s="14"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
@@ -3291,7 +3288,7 @@
       <c r="AJ23" s="15"/>
       <c r="AK23" s="16"/>
     </row>
-    <row r="24" spans="5:37">
+    <row r="24" spans="5:37" x14ac:dyDescent="0.15">
       <c r="E24" s="14"/>
       <c r="F24" s="15"/>
       <c r="G24" s="17"/>
@@ -3332,7 +3329,7 @@
       <c r="AJ24" s="15"/>
       <c r="AK24" s="16"/>
     </row>
-    <row r="25" spans="5:37">
+    <row r="25" spans="5:37" x14ac:dyDescent="0.15">
       <c r="E25" s="14"/>
       <c r="F25" s="15"/>
       <c r="G25" s="17"/>
@@ -3373,7 +3370,7 @@
       <c r="AJ25" s="15"/>
       <c r="AK25" s="16"/>
     </row>
-    <row r="26" spans="5:37">
+    <row r="26" spans="5:37" x14ac:dyDescent="0.15">
       <c r="E26" s="14"/>
       <c r="F26" s="15" t="s">
         <v>68</v>
@@ -3410,7 +3407,7 @@
       <c r="AJ26" s="15"/>
       <c r="AK26" s="16"/>
     </row>
-    <row r="27" spans="5:37">
+    <row r="27" spans="5:37" x14ac:dyDescent="0.15">
       <c r="E27" s="14"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
@@ -3449,7 +3446,7 @@
       <c r="AJ27" s="15"/>
       <c r="AK27" s="16"/>
     </row>
-    <row r="28" spans="5:37">
+    <row r="28" spans="5:37" x14ac:dyDescent="0.15">
       <c r="E28" s="14"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
@@ -3490,7 +3487,7 @@
       <c r="AJ28" s="15"/>
       <c r="AK28" s="16"/>
     </row>
-    <row r="29" spans="5:37">
+    <row r="29" spans="5:37" x14ac:dyDescent="0.15">
       <c r="E29" s="14"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
@@ -3531,7 +3528,7 @@
       <c r="AJ29" s="15"/>
       <c r="AK29" s="16"/>
     </row>
-    <row r="30" spans="5:37">
+    <row r="30" spans="5:37" x14ac:dyDescent="0.15">
       <c r="E30" s="14"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
@@ -3566,7 +3563,7 @@
       <c r="AJ30" s="15"/>
       <c r="AK30" s="16"/>
     </row>
-    <row r="31" spans="5:37" ht="16.5" thickBot="1">
+    <row r="31" spans="5:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="E31" s="23"/>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
@@ -3601,7 +3598,7 @@
       <c r="AJ31" s="24"/>
       <c r="AK31" s="25"/>
     </row>
-    <row r="33" spans="5:19">
+    <row r="33" spans="5:19" x14ac:dyDescent="0.15">
       <c r="E33" s="26" t="s">
         <v>74</v>
       </c>
@@ -3615,7 +3612,7 @@
       <c r="O33" s="27"/>
       <c r="P33" s="28"/>
     </row>
-    <row r="34" spans="5:19">
+    <row r="34" spans="5:19" x14ac:dyDescent="0.15">
       <c r="E34" s="29"/>
       <c r="F34" s="30" t="s">
         <v>76</v>
@@ -3629,7 +3626,7 @@
       <c r="O34" s="30"/>
       <c r="P34" s="31"/>
     </row>
-    <row r="35" spans="5:19">
+    <row r="35" spans="5:19" x14ac:dyDescent="0.15">
       <c r="E35" s="32"/>
       <c r="F35" s="33" t="s">
         <v>77</v>
@@ -3643,7 +3640,7 @@
       <c r="O35" s="41"/>
       <c r="P35" s="42"/>
     </row>
-    <row r="36" spans="5:19">
+    <row r="36" spans="5:19" x14ac:dyDescent="0.15">
       <c r="E36" s="32"/>
       <c r="F36" s="33" t="s">
         <v>79</v>
@@ -3657,7 +3654,7 @@
       <c r="O36" s="41"/>
       <c r="P36" s="42"/>
     </row>
-    <row r="37" spans="5:19">
+    <row r="37" spans="5:19" x14ac:dyDescent="0.15">
       <c r="E37" s="32"/>
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
@@ -3669,7 +3666,7 @@
       <c r="O37" s="41"/>
       <c r="P37" s="42"/>
     </row>
-    <row r="40" spans="5:19">
+    <row r="40" spans="5:19" x14ac:dyDescent="0.15">
       <c r="E40" s="26" t="s">
         <v>81</v>
       </c>
@@ -3683,7 +3680,7 @@
       <c r="R40" s="27"/>
       <c r="S40" s="28"/>
     </row>
-    <row r="41" spans="5:19">
+    <row r="41" spans="5:19" x14ac:dyDescent="0.15">
       <c r="E41" s="29"/>
       <c r="F41" s="30" t="s">
         <v>78</v>
@@ -3697,7 +3694,7 @@
       <c r="R41" s="30"/>
       <c r="S41" s="31"/>
     </row>
-    <row r="42" spans="5:19">
+    <row r="42" spans="5:19" x14ac:dyDescent="0.15">
       <c r="E42" s="29"/>
       <c r="F42" s="30" t="s">
         <v>80</v>
@@ -3711,7 +3708,7 @@
       <c r="R42" s="30"/>
       <c r="S42" s="31"/>
     </row>
-    <row r="43" spans="5:19">
+    <row r="43" spans="5:19" x14ac:dyDescent="0.15">
       <c r="E43" s="32"/>
       <c r="F43" s="33" t="s">
         <v>83</v>
@@ -3728,7 +3725,7 @@
       <c r="R43" s="30"/>
       <c r="S43" s="31"/>
     </row>
-    <row r="44" spans="5:19">
+    <row r="44" spans="5:19" x14ac:dyDescent="0.15">
       <c r="E44" s="32"/>
       <c r="F44" s="33" t="s">
         <v>85</v>
@@ -3742,7 +3739,7 @@
       <c r="R44" s="30"/>
       <c r="S44" s="31"/>
     </row>
-    <row r="45" spans="5:19">
+    <row r="45" spans="5:19" x14ac:dyDescent="0.15">
       <c r="E45" s="32"/>
       <c r="F45" s="33" t="s">
         <v>87</v>
@@ -3750,7 +3747,7 @@
       <c r="G45" s="33"/>
       <c r="H45" s="34"/>
     </row>
-    <row r="46" spans="5:19">
+    <row r="46" spans="5:19" x14ac:dyDescent="0.15">
       <c r="E46" s="32"/>
       <c r="F46" s="33" t="s">
         <v>88</v>
@@ -3758,7 +3755,7 @@
       <c r="G46" s="33"/>
       <c r="H46" s="34"/>
     </row>
-    <row r="47" spans="5:19">
+    <row r="47" spans="5:19" x14ac:dyDescent="0.15">
       <c r="E47" s="32"/>
       <c r="F47" s="33" t="s">
         <v>89</v>
@@ -3769,7 +3766,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="5:19">
+    <row r="48" spans="5:19" x14ac:dyDescent="0.15">
       <c r="E48" s="32"/>
       <c r="F48" s="33" t="s">
         <v>91</v>
@@ -3777,8 +3774,8 @@
       <c r="G48" s="33"/>
       <c r="H48" s="34"/>
     </row>
-    <row r="49" spans="4:28" ht="16.5" thickBot="1"/>
-    <row r="50" spans="4:28">
+    <row r="49" spans="4:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D50" s="11"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
@@ -3800,7 +3797,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="4:28">
+    <row r="51" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D51" s="14"/>
       <c r="E51" s="26" t="s">
         <v>96</v>
@@ -3815,7 +3812,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="4:28">
+    <row r="52" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D52" s="14"/>
       <c r="E52" s="29"/>
       <c r="F52" s="30" t="s">
@@ -3833,7 +3830,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="4:28">
+    <row r="53" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D53" s="14"/>
       <c r="E53" s="29"/>
       <c r="F53" s="30" t="s">
@@ -3848,7 +3845,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="4:28">
+    <row r="54" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D54" s="14"/>
       <c r="E54" s="29"/>
       <c r="F54" s="30" t="s">
@@ -3862,7 +3859,7 @@
       <c r="J54" s="15"/>
       <c r="K54" s="16"/>
     </row>
-    <row r="55" spans="4:28">
+    <row r="55" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D55" s="14"/>
       <c r="E55" s="32"/>
       <c r="F55" s="33" t="s">
@@ -3879,7 +3876,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="4:28">
+    <row r="56" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D56" s="14"/>
       <c r="E56" s="32"/>
       <c r="F56" s="33" t="s">
@@ -3907,7 +3904,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="4:28">
+    <row r="57" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D57" s="14"/>
       <c r="E57" s="29"/>
       <c r="F57" s="30" t="s">
@@ -3922,7 +3919,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="4:28">
+    <row r="58" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D58" s="14"/>
       <c r="E58" s="32"/>
       <c r="F58" s="33" t="s">
@@ -3940,7 +3937,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="4:28">
+    <row r="59" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D59" s="14"/>
       <c r="E59" s="32"/>
       <c r="F59" s="33" t="s">
@@ -3957,7 +3954,7 @@
       <c r="X59" s="46"/>
       <c r="Y59" s="47"/>
     </row>
-    <row r="60" spans="4:28">
+    <row r="60" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D60" s="14"/>
       <c r="E60" s="32"/>
       <c r="F60" s="33" t="s">
@@ -3989,7 +3986,7 @@
       <c r="AA60" s="46"/>
       <c r="AB60" s="47"/>
     </row>
-    <row r="61" spans="4:28">
+    <row r="61" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D61" s="14"/>
       <c r="E61" s="32"/>
       <c r="F61" s="33" t="s">
@@ -4019,7 +4016,7 @@
       <c r="AA61" s="46"/>
       <c r="AB61" s="47"/>
     </row>
-    <row r="62" spans="4:28">
+    <row r="62" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D62" s="14"/>
       <c r="E62" s="32"/>
       <c r="F62" s="33" t="s">
@@ -4031,7 +4028,7 @@
       <c r="J62" s="15"/>
       <c r="K62" s="16"/>
     </row>
-    <row r="63" spans="4:28">
+    <row r="63" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D63" s="14"/>
       <c r="E63" s="32"/>
       <c r="F63" s="33" t="s">
@@ -4049,7 +4046,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="4:28">
+    <row r="64" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D64" s="14"/>
       <c r="E64" s="32"/>
       <c r="F64" s="33" t="s">
@@ -4061,7 +4058,7 @@
       <c r="J64" s="15"/>
       <c r="K64" s="16"/>
     </row>
-    <row r="65" spans="4:28">
+    <row r="65" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D65" s="14"/>
       <c r="E65" s="32"/>
       <c r="F65" s="33" t="s">
@@ -4080,7 +4077,7 @@
       <c r="X65" s="46"/>
       <c r="Y65" s="47"/>
     </row>
-    <row r="66" spans="4:28">
+    <row r="66" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D66" s="14"/>
       <c r="E66" s="32"/>
       <c r="F66" s="33" t="s">
@@ -4112,7 +4109,7 @@
       <c r="AA66" s="46"/>
       <c r="AB66" s="47"/>
     </row>
-    <row r="67" spans="4:28">
+    <row r="67" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D67" s="14"/>
       <c r="E67" s="32"/>
       <c r="F67" s="33" t="s">
@@ -4144,7 +4141,7 @@
       <c r="AA67" s="46"/>
       <c r="AB67" s="47"/>
     </row>
-    <row r="68" spans="4:28" ht="16.5" thickBot="1">
+    <row r="68" spans="4:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D68" s="23"/>
       <c r="E68" s="24"/>
       <c r="F68" s="24"/>
@@ -4157,13 +4154,13 @@
         <v>111</v>
       </c>
     </row>
-    <row r="69" spans="4:28">
+    <row r="69" spans="4:28" x14ac:dyDescent="0.15">
       <c r="W69" s="48" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="4:28" ht="16.5" thickBot="1"/>
-    <row r="72" spans="4:28">
+    <row r="71" spans="4:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D72" s="11"/>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
@@ -4173,7 +4170,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="13"/>
     </row>
-    <row r="73" spans="4:28">
+    <row r="73" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D73" s="14"/>
       <c r="E73" s="26" t="s">
         <v>137</v>
@@ -4185,7 +4182,7 @@
       <c r="J73" s="15"/>
       <c r="K73" s="16"/>
     </row>
-    <row r="74" spans="4:28">
+    <row r="74" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D74" s="14"/>
       <c r="E74" s="32"/>
       <c r="F74" s="33" t="s">
@@ -4197,7 +4194,7 @@
       <c r="J74" s="15"/>
       <c r="K74" s="16"/>
     </row>
-    <row r="75" spans="4:28">
+    <row r="75" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D75" s="14"/>
       <c r="E75" s="32"/>
       <c r="F75" s="33" t="s">
@@ -4212,7 +4209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="4:28">
+    <row r="76" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D76" s="14"/>
       <c r="E76" s="32"/>
       <c r="F76" s="33" t="s">
@@ -4224,7 +4221,7 @@
       <c r="J76" s="15"/>
       <c r="K76" s="16"/>
     </row>
-    <row r="77" spans="4:28">
+    <row r="77" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D77" s="14"/>
       <c r="E77" s="32"/>
       <c r="F77" s="33"/>
@@ -4234,7 +4231,7 @@
       <c r="J77" s="15"/>
       <c r="K77" s="16"/>
     </row>
-    <row r="78" spans="4:28" ht="16.5" thickBot="1">
+    <row r="78" spans="4:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D78" s="23"/>
       <c r="E78" s="24"/>
       <c r="F78" s="24"/>
@@ -4244,7 +4241,7 @@
       <c r="J78" s="24"/>
       <c r="K78" s="25"/>
     </row>
-    <row r="79" spans="4:28">
+    <row r="79" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D79" s="15"/>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
@@ -4254,7 +4251,7 @@
       <c r="J79" s="15"/>
       <c r="K79" s="15"/>
     </row>
-    <row r="80" spans="4:28">
+    <row r="80" spans="4:28" x14ac:dyDescent="0.15">
       <c r="D80" s="15"/>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
@@ -4264,7 +4261,7 @@
       <c r="J80" s="15"/>
       <c r="K80" s="15"/>
     </row>
-    <row r="81" spans="4:20">
+    <row r="81" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D81" s="15"/>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
@@ -4274,7 +4271,7 @@
       <c r="J81" s="15"/>
       <c r="K81" s="15"/>
     </row>
-    <row r="82" spans="4:20">
+    <row r="82" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D82" s="15"/>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
@@ -4287,7 +4284,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="83" spans="4:20">
+    <row r="83" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D83" s="15"/>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
@@ -4297,7 +4294,7 @@
       <c r="J83" s="15"/>
       <c r="K83" s="15"/>
     </row>
-    <row r="84" spans="4:20">
+    <row r="84" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D84" s="15"/>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
@@ -4307,7 +4304,7 @@
       <c r="J84" s="15"/>
       <c r="K84" s="15"/>
     </row>
-    <row r="85" spans="4:20">
+    <row r="85" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D85" s="15"/>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
@@ -4317,7 +4314,7 @@
       <c r="J85" s="15"/>
       <c r="K85" s="15"/>
     </row>
-    <row r="86" spans="4:20">
+    <row r="86" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D86" s="15"/>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
@@ -4327,7 +4324,7 @@
       <c r="J86" s="15"/>
       <c r="K86" s="15"/>
     </row>
-    <row r="87" spans="4:20">
+    <row r="87" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D87" s="15"/>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
@@ -4337,7 +4334,7 @@
       <c r="J87" s="15"/>
       <c r="K87" s="15"/>
     </row>
-    <row r="88" spans="4:20">
+    <row r="88" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D88" s="15"/>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
@@ -4361,9 +4358,9 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="6" spans="3:6" ht="15.75">
+    <row r="6" spans="3:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="C6" s="26" t="s">
         <v>74</v>
       </c>
@@ -4371,7 +4368,7 @@
       <c r="E6" s="27"/>
       <c r="F6" s="28"/>
     </row>
-    <row r="7" spans="3:6" ht="15.75">
+    <row r="7" spans="3:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="C7" s="29"/>
       <c r="D7" s="30" t="s">
         <v>76</v>
@@ -4379,7 +4376,7 @@
       <c r="E7" s="30"/>
       <c r="F7" s="31"/>
     </row>
-    <row r="8" spans="3:6" ht="15.75">
+    <row r="8" spans="3:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="C8" s="32"/>
       <c r="D8" s="33" t="s">
         <v>77</v>
@@ -4387,7 +4384,7 @@
       <c r="E8" s="33"/>
       <c r="F8" s="34"/>
     </row>
-    <row r="9" spans="3:6" ht="15.75">
+    <row r="9" spans="3:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="C9" s="32"/>
       <c r="D9" s="33" t="s">
         <v>79</v>
@@ -4395,7 +4392,7 @@
       <c r="E9" s="33"/>
       <c r="F9" s="34"/>
     </row>
-    <row r="10" spans="3:6" ht="15.75">
+    <row r="10" spans="3:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="C10" s="32"/>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
@@ -4415,9 +4412,9 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>145</v>
       </c>
@@ -4425,7 +4422,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
         <v>146</v>
       </c>
@@ -4433,17 +4430,17 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
         <v>149</v>
       </c>
@@ -4457,13 +4454,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:U109"/>
+  <dimension ref="A4:U130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9" style="49"/>
     <col min="3" max="3" width="10.625" style="49" customWidth="1"/>
@@ -4479,8 +4476,8 @@
     <col min="19" max="16384" width="9" style="49"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:19" ht="12.75" thickBot="1"/>
-    <row r="5" spans="2:19" ht="12.75" thickBot="1">
+    <row r="4" spans="2:19" ht="12.75" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="2:19" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="53"/>
       <c r="C5" s="54"/>
       <c r="D5" s="54"/>
@@ -4490,22 +4487,22 @@
       <c r="H5" s="54"/>
       <c r="I5" s="56"/>
       <c r="J5" s="49" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="P5" s="49" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" ht="12.75" thickBot="1">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="57"/>
       <c r="C6" s="51" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D6" s="63" t="s">
         <v>151</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F6" s="51"/>
       <c r="G6" s="51"/>
@@ -4515,25 +4512,25 @@
         <v>0</v>
       </c>
       <c r="L6" s="49" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M6" s="49" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="O6" s="49" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q6" s="49" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="S6" s="49" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" ht="12.75" thickBot="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="57"/>
       <c r="C7" s="51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D7" s="64"/>
       <c r="E7" s="65"/>
@@ -4542,25 +4539,25 @@
       <c r="H7" s="51"/>
       <c r="I7" s="58"/>
       <c r="K7" s="49" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L7" s="49" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M7" s="49" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="Q7" s="49" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="S7" s="49" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" ht="12.75" thickBot="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="57"/>
       <c r="C8" s="51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D8" s="64"/>
       <c r="E8" s="65"/>
@@ -4569,22 +4566,22 @@
       <c r="H8" s="51"/>
       <c r="I8" s="58"/>
       <c r="K8" s="49" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L8" s="49" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M8" s="49" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="S8" s="49" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" ht="12.75" thickBot="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="57"/>
       <c r="C9" s="51" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -4593,16 +4590,16 @@
       <c r="H9" s="51"/>
       <c r="I9" s="58"/>
       <c r="K9" s="49" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M9" s="49" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" ht="12.75" thickBot="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="57"/>
       <c r="C10" s="51"/>
       <c r="D10" s="50"/>
@@ -4610,20 +4607,20 @@
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
       <c r="H10" s="67" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I10" s="58"/>
       <c r="K10" s="49" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L10" s="49" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M10" s="49" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" ht="12.75" thickBot="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="59"/>
       <c r="C11" s="60"/>
       <c r="D11" s="52"/>
@@ -4633,16 +4630,16 @@
       <c r="H11" s="60"/>
       <c r="I11" s="61"/>
       <c r="K11" s="49" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L11" s="49" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M11" s="49" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" ht="12.75" thickBot="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="53"/>
       <c r="C12" s="54"/>
       <c r="D12" s="55"/>
@@ -4652,10 +4649,10 @@
       <c r="H12" s="54"/>
       <c r="I12" s="56"/>
       <c r="J12" s="49" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" ht="12.75" thickBot="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B13" s="57"/>
       <c r="C13" s="51" t="s">
         <v>152</v>
@@ -4664,7 +4661,7 @@
         <v>151</v>
       </c>
       <c r="E13" s="51" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
@@ -4674,23 +4671,23 @@
         <v>0</v>
       </c>
       <c r="L13" s="49" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M13" s="49" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="N13" s="49" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="O13" s="49" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B14" s="57"/>
       <c r="C14" s="51"/>
       <c r="D14" s="49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E14" s="51"/>
       <c r="F14" s="51"/>
@@ -4701,19 +4698,19 @@
         <v>152</v>
       </c>
       <c r="L14" s="49" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M14" s="49" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="N14" s="49" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="O14" s="49" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B15" s="57"/>
       <c r="C15" s="51"/>
       <c r="D15" s="51"/>
@@ -4723,22 +4720,22 @@
       <c r="H15" s="51"/>
       <c r="I15" s="58"/>
       <c r="K15" s="51" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L15" s="49" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M15" s="49" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N15" s="49" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B16" s="57"/>
       <c r="C16" s="51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D16" s="51"/>
       <c r="E16" s="51"/>
@@ -4747,19 +4744,19 @@
       <c r="H16" s="51"/>
       <c r="I16" s="58"/>
       <c r="K16" s="51" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L16" s="49" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="M16" s="49" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N16" s="49" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="17" spans="2:21">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B17" s="57"/>
       <c r="C17" s="51"/>
       <c r="D17" s="51"/>
@@ -4771,23 +4768,23 @@
       <c r="H17" s="51"/>
       <c r="I17" s="58"/>
       <c r="K17" s="49" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L17" s="49" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M17" s="49" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N17" s="49" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="18" spans="2:21">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B18" s="57"/>
       <c r="C18" s="51"/>
       <c r="D18" s="51" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E18" s="51"/>
       <c r="F18" s="51"/>
@@ -4795,19 +4792,19 @@
       <c r="H18" s="51"/>
       <c r="I18" s="58"/>
       <c r="K18" s="49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L18" s="49" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="M18" s="49" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N18" s="49" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="19" spans="2:21">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B19" s="57"/>
       <c r="C19" s="51"/>
       <c r="D19" s="51"/>
@@ -4823,23 +4820,23 @@
       <c r="H19" s="50"/>
       <c r="I19" s="58"/>
       <c r="K19" s="49" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L19" s="49" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="M19" s="49" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N19" s="49" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="20" spans="2:21">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B20" s="57"/>
       <c r="C20" s="51"/>
       <c r="D20" s="51" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E20" s="51"/>
       <c r="F20" s="51"/>
@@ -4847,7 +4844,7 @@
       <c r="H20" s="51"/>
       <c r="I20" s="58"/>
     </row>
-    <row r="21" spans="2:21">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B21" s="57"/>
       <c r="C21" s="51"/>
       <c r="D21" s="51"/>
@@ -4861,61 +4858,61 @@
         <v>159</v>
       </c>
       <c r="H21" s="50" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I21" s="58"/>
       <c r="J21" s="49" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="P21" s="49" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="22" spans="2:21">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B22" s="57"/>
       <c r="C22" s="51"/>
       <c r="D22" s="51" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E22" s="51"/>
       <c r="F22" s="51"/>
       <c r="G22" s="77" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H22" s="51"/>
       <c r="I22" s="58"/>
       <c r="K22" s="49" t="s">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="L22" s="49" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M22" s="49" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="N22" s="49" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="O22" s="49" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q22" s="49" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="R22" s="49" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="S22" s="49" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="T22" s="49" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="U22" s="49" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="2:21">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B23" s="57"/>
       <c r="C23" s="51"/>
       <c r="D23" s="51"/>
@@ -4923,47 +4920,47 @@
         <v>157</v>
       </c>
       <c r="F23" s="50" t="s">
-        <v>162</v>
+        <v>272</v>
       </c>
       <c r="G23" s="50" t="s">
         <v>159</v>
       </c>
       <c r="H23" s="50" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I23" s="58"/>
       <c r="K23" s="51" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="L23" s="49" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M23" s="49" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="N23" s="49" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="O23" s="49" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q23" s="49" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="R23" s="49" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="S23" s="49" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="T23" s="49" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="24" spans="2:21" ht="12.75" thickBot="1">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="57"/>
       <c r="C24" s="51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D24" s="51"/>
       <c r="E24" s="50"/>
@@ -4972,75 +4969,75 @@
       <c r="H24" s="50"/>
       <c r="I24" s="58"/>
       <c r="K24" s="49" t="s">
-        <v>215</v>
+        <v>273</v>
       </c>
       <c r="L24" s="49" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M24" s="49" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="N24" s="49" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="O24" s="49" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q24" s="49" t="s">
-        <v>208</v>
+        <v>273</v>
       </c>
       <c r="R24" s="49" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="S24" s="49" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="T24" s="49" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="U24" s="49" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="25" spans="2:21" ht="12.75" thickBot="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B25" s="57"/>
       <c r="C25" s="51"/>
       <c r="D25" s="69"/>
       <c r="E25" s="70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F25" s="69"/>
       <c r="G25" s="70" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H25" s="50"/>
       <c r="I25" s="58"/>
       <c r="K25" s="49" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L25" s="49" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M25" s="49" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N25" s="49" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="Q25" s="49" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="R25" s="49" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="S25" s="49" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="T25" s="49" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="26" spans="2:21" ht="12.75" thickBot="1">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B26" s="57"/>
       <c r="C26" s="51"/>
       <c r="D26" s="51"/>
@@ -5050,31 +5047,31 @@
       <c r="H26" s="50"/>
       <c r="I26" s="58"/>
       <c r="K26" s="49" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L26" s="49" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="M26" s="49" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N26" s="49" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="Q26" s="49" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="R26" s="49" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="S26" s="49" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="T26" s="49" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="27" spans="2:21" ht="12.75" thickBot="1">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B27" s="57"/>
       <c r="C27" s="51"/>
       <c r="D27" s="51"/>
@@ -5082,35 +5079,35 @@
       <c r="F27" s="51"/>
       <c r="G27" s="51"/>
       <c r="H27" s="67" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I27" s="58"/>
       <c r="K27" s="49" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="L27" s="49" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="M27" s="49" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N27" s="49" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="Q27" s="49" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="R27" s="49" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="S27" s="49" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="T27" s="49" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="28" spans="2:21" ht="12.75" thickBot="1">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B28" s="59"/>
       <c r="C28" s="60"/>
       <c r="D28" s="60"/>
@@ -5120,35 +5117,35 @@
       <c r="H28" s="60"/>
       <c r="I28" s="61"/>
       <c r="K28" s="49" t="s">
-        <v>212</v>
+        <v>276</v>
       </c>
       <c r="L28" s="49" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M28" s="49" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N28" s="49" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="29" spans="2:21" ht="12.75" thickBot="1">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="K29" s="49" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L29" s="49" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="M29" s="49" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N29" s="49" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="30" spans="2:21" ht="12.75" thickBot="1">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C30" s="71" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D30" s="74"/>
       <c r="E30" s="76">
@@ -5158,607 +5155,763 @@
       <c r="G30" s="65"/>
       <c r="H30" s="66"/>
       <c r="K30" s="49" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L30" s="49" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="M30" s="49" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N30" s="49" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="31" spans="2:21">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.15">
       <c r="C31" s="71" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="33" spans="3:16">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C33" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="H33" s="71" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="3:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D34" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="H33" s="71" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="34" spans="3:16" ht="12.75" thickBot="1">
-      <c r="D34" s="49" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="35" spans="3:16" ht="12.75" thickBot="1">
+    </row>
+    <row r="35" spans="3:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="E35" s="50" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F35" s="49" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H35" s="73">
         <v>0.2</v>
       </c>
       <c r="J35" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="K35" s="78" t="s">
         <v>188</v>
       </c>
-      <c r="K35" s="78" t="s">
+      <c r="L35" s="78" t="s">
         <v>189</v>
-      </c>
-      <c r="L35" s="78" t="s">
-        <v>190</v>
       </c>
       <c r="M35" s="80"/>
       <c r="N35" s="80"/>
       <c r="P35" s="49" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="36" spans="3:16" ht="12.75" thickBot="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="E36" s="50" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F36" s="49" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H36" s="72"/>
       <c r="J36" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="K36" s="78" t="s">
         <v>188</v>
       </c>
-      <c r="K36" s="78" t="s">
+      <c r="L36" s="78" t="s">
         <v>189</v>
-      </c>
-      <c r="L36" s="78" t="s">
-        <v>190</v>
       </c>
       <c r="M36" s="80"/>
       <c r="N36" s="80"/>
     </row>
-    <row r="37" spans="3:16" ht="12.75" thickBot="1">
+    <row r="37" spans="3:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D37" s="49" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="38" spans="3:16" ht="12.75" thickBot="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="3:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="E38" s="50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F38" s="49" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H38" s="72"/>
       <c r="J38" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="K38" s="78" t="s">
         <v>188</v>
       </c>
-      <c r="K38" s="78" t="s">
+      <c r="L38" s="78" t="s">
         <v>189</v>
-      </c>
-      <c r="L38" s="78" t="s">
-        <v>190</v>
       </c>
       <c r="M38" s="80"/>
       <c r="N38" s="80"/>
     </row>
-    <row r="39" spans="3:16" ht="12.75" thickBot="1">
+    <row r="39" spans="3:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="E39" s="50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F39" s="49" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H39" s="72"/>
       <c r="J39" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="K39" s="78" t="s">
         <v>188</v>
       </c>
-      <c r="K39" s="78" t="s">
+      <c r="L39" s="78" t="s">
         <v>189</v>
-      </c>
-      <c r="L39" s="78" t="s">
-        <v>190</v>
       </c>
       <c r="M39" s="80"/>
       <c r="N39" s="80"/>
     </row>
-    <row r="40" spans="3:16" ht="12.75" thickBot="1">
+    <row r="40" spans="3:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D40" s="49" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="3:16" ht="12.75" thickBot="1">
+    <row r="41" spans="3:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="E41" s="50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F41" s="49" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H41" s="72"/>
       <c r="J41" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="K41" s="78" t="s">
         <v>188</v>
       </c>
-      <c r="K41" s="78" t="s">
+      <c r="L41" s="78" t="s">
         <v>189</v>
-      </c>
-      <c r="L41" s="78" t="s">
-        <v>190</v>
       </c>
       <c r="M41" s="80"/>
       <c r="N41" s="80"/>
     </row>
-    <row r="42" spans="3:16" ht="12.75" thickBot="1">
+    <row r="42" spans="3:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="E42" s="79" t="s">
+        <v>181</v>
+      </c>
+      <c r="F42" s="49" t="s">
         <v>182</v>
-      </c>
-      <c r="F42" s="49" t="s">
-        <v>183</v>
       </c>
       <c r="H42" s="72"/>
       <c r="J42" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="K42" s="78" t="s">
         <v>188</v>
       </c>
-      <c r="K42" s="78" t="s">
+      <c r="L42" s="78" t="s">
         <v>189</v>
-      </c>
-      <c r="L42" s="78" t="s">
-        <v>190</v>
       </c>
       <c r="M42" s="80"/>
       <c r="N42" s="80"/>
       <c r="P42" s="71" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="43" spans="3:16" ht="12.75" thickBot="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" spans="3:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="E43" s="50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F43" s="49" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H43" s="72"/>
       <c r="J43" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="K43" s="78" t="s">
         <v>188</v>
       </c>
-      <c r="K43" s="78" t="s">
+      <c r="L43" s="78" t="s">
         <v>189</v>
-      </c>
-      <c r="L43" s="78" t="s">
-        <v>190</v>
       </c>
       <c r="M43" s="80"/>
       <c r="N43" s="80"/>
       <c r="P43" s="71" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="44" spans="3:16" ht="12.75" thickBot="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="44" spans="3:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="E44" s="50" t="s">
         <v>161</v>
       </c>
       <c r="F44" s="49" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H44" s="72"/>
       <c r="J44" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="K44" s="78" t="s">
         <v>188</v>
       </c>
-      <c r="K44" s="78" t="s">
+      <c r="L44" s="78" t="s">
         <v>189</v>
-      </c>
-      <c r="L44" s="78" t="s">
-        <v>190</v>
       </c>
       <c r="M44" s="80"/>
       <c r="N44" s="80"/>
       <c r="P44" s="49" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="46" spans="3:16">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C46" s="49" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="49" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="49" t="s">
         <v>0</v>
       </c>
       <c r="B59" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="C59" s="49" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="B60" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="C60" s="49" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="C59" s="49" t="s">
+      <c r="B61" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="C61" s="49" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" s="49" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="49" t="s">
+      <c r="B62" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="C62" s="49" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="B63" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="C63" s="49" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="B64" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="C64" s="49" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="B60" s="49" t="s">
-        <v>235</v>
-      </c>
-      <c r="C60" s="49" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="49" t="s">
-        <v>237</v>
-      </c>
-      <c r="B61" s="49" t="s">
-        <v>235</v>
-      </c>
-      <c r="C61" s="49" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="49" t="s">
-        <v>238</v>
-      </c>
-      <c r="B62" s="49" t="s">
-        <v>235</v>
-      </c>
-      <c r="C62" s="49" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="49" t="s">
-        <v>200</v>
-      </c>
-      <c r="B63" s="49" t="s">
-        <v>235</v>
-      </c>
-      <c r="C63" s="49" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="49" t="s">
-        <v>201</v>
-      </c>
-      <c r="B64" s="49" t="s">
-        <v>235</v>
-      </c>
-      <c r="C64" s="49" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="49" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="49" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B67" s="49" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="49" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="49" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="49" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="49" t="s">
         <v>0</v>
       </c>
       <c r="B73" s="49" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C73" s="49" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D73" s="49" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="B74" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="C74" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="D74" s="49" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" s="49" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="49" t="s">
+      <c r="B75" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="C75" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="D75" s="49" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="B76" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="C76" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="D76" s="49" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="B77" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="C77" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="D77" s="49" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="B78" s="49" t="s">
         <v>249</v>
       </c>
-      <c r="B74" s="49" t="s">
-        <v>232</v>
-      </c>
-      <c r="C74" s="49" t="s">
-        <v>228</v>
-      </c>
-      <c r="D74" s="49" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="49" t="s">
+      <c r="C78" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="D78" s="49" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" s="49" t="s">
         <v>250</v>
       </c>
-      <c r="B75" s="49" t="s">
-        <v>235</v>
-      </c>
-      <c r="C75" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="D75" s="49" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="49" t="s">
+      <c r="B79" s="49" t="s">
+        <v>249</v>
+      </c>
+      <c r="C79" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="D79" s="49" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="B76" s="49" t="s">
-        <v>243</v>
-      </c>
-      <c r="C76" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="D76" s="49" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="49" t="s">
-        <v>252</v>
-      </c>
-      <c r="B77" s="49" t="s">
-        <v>242</v>
-      </c>
-      <c r="C77" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="D77" s="49" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="49" t="s">
-        <v>253</v>
-      </c>
-      <c r="B78" s="49" t="s">
-        <v>254</v>
-      </c>
-      <c r="C78" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="D78" s="49" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="49" t="s">
-        <v>255</v>
-      </c>
-      <c r="B79" s="49" t="s">
-        <v>254</v>
-      </c>
-      <c r="C79" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="D79" s="49" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="49" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="49" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B83" s="49" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B84" s="49" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="49" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="49" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="49" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="49" t="s">
         <v>0</v>
       </c>
       <c r="B94" s="49" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C94" s="49" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D94" s="49" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="49" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B95" s="49" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C95" s="49" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D95" s="49" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="49" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B96" s="49" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C96" s="49" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D96" s="49" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" s="49" t="s">
+        <v>253</v>
+      </c>
+      <c r="B97" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="C97" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="D97" s="49" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="B98" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="C98" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="D98" s="49" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="B99" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="C99" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="D99" s="49" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="B100" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="C100" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="D100" s="49" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="B101" s="49" t="s">
+        <v>249</v>
+      </c>
+      <c r="C101" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="D101" s="49" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102" s="49" t="s">
+        <v>258</v>
+      </c>
+      <c r="B102" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="C102" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="D102" s="49" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A105" s="49" t="s">
         <v>259</v>
       </c>
-      <c r="B97" s="49" t="s">
-        <v>235</v>
-      </c>
-      <c r="C97" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="D97" s="49" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="49" t="s">
-        <v>260</v>
-      </c>
-      <c r="B98" s="49" t="s">
-        <v>243</v>
-      </c>
-      <c r="C98" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="D98" s="49" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="49" t="s">
-        <v>261</v>
-      </c>
-      <c r="B99" s="49" t="s">
-        <v>243</v>
-      </c>
-      <c r="C99" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="D99" s="49" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="49" t="s">
-        <v>262</v>
-      </c>
-      <c r="B100" s="49" t="s">
-        <v>242</v>
-      </c>
-      <c r="C100" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="D100" s="49" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="49" t="s">
-        <v>263</v>
-      </c>
-      <c r="B101" s="49" t="s">
-        <v>243</v>
-      </c>
-      <c r="C101" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="D101" s="49" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="49" t="s">
-        <v>264</v>
-      </c>
-      <c r="B102" s="49" t="s">
-        <v>254</v>
-      </c>
-      <c r="C102" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="D102" s="49" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="49" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" s="49" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B107" s="49" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" s="49" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" s="49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A114" s="49" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A115" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="C115" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="D115" s="49" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A116" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="B116" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="C116" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="D116" s="49" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A117" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="B117" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="C117" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="D117" s="49" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A118" s="49" t="s">
+        <v>253</v>
+      </c>
+      <c r="B118" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="C118" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="D118" s="49" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A119" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="B119" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="C119" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="D119" s="49" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A120" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="B120" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="C120" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="D120" s="49" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A121" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="B121" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="C121" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="D121" s="49" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A122" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="B122" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="C122" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="D122" s="49" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A123" s="49" t="s">
+        <v>258</v>
+      </c>
+      <c r="B123" s="49" t="s">
+        <v>249</v>
+      </c>
+      <c r="C123" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="D123" s="49" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A126" s="49" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A127" s="49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B128" s="49" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A129" s="49" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A130" s="49" t="s">
         <v>34</v>
       </c>
     </row>

--- a/AutoDo/仕様.xlsx
+++ b/AutoDo/仕様.xlsx
@@ -1056,142 +1056,253 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>yotei_start_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yotei_end_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yotei_kousuu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pgm_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pgm_level</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kinou_kbn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pgm_demo_path</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pgm_last_upd_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pgm_bunrui_cd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pgm_bunrui_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m_list_info</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pgm_staus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未着手、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成中、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本側検証中</t>
+  </si>
+  <si>
+    <t>km_no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>km_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>m_ankan_kihon_info</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CREATE TABLE [dbo].[m_ankan_kihon_info](</t>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+  </si>
+  <si>
+    <t>NOT NULL,</t>
+  </si>
+  <si>
+    <t>server_siryou_path</t>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
+  </si>
+  <si>
+    <t>NULL,</t>
+  </si>
+  <si>
+    <t>client_siryou_path</t>
+  </si>
+  <si>
+    <t>code_path1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CONSTRAINT [PK_m_ankan_kihon_info] PRIMARY KEY CLUSTERED </t>
+  </si>
+  <si>
+    <t>[edp_no] ASC</t>
+  </si>
+  <si>
+    <t>)WITH (PAD_INDEX  = OFF, STATISTICS_NORECOMPUTE  = OFF, IGNORE_DUP_KEY = OFF, ALLOW_ROW_LOCKS  = ON, ALLOW_PAGE_LOCKS  = ON) ON [PRIMARY]</t>
+  </si>
+  <si>
+    <t>[numeric](9, 0)</t>
+  </si>
+  <si>
+    <t>nvarchar(1)</t>
+  </si>
+  <si>
+    <t>nvarchar(1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CREATE TABLE [dbo].[m_ankan_kinou_info](</t>
+  </si>
+  <si>
+    <t>kinou_no</t>
+  </si>
+  <si>
     <t>kinou_mei</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kinou_kbn</t>
+  </si>
+  <si>
+    <t>yotei_kousuu</t>
   </si>
   <si>
     <t>yotei_start_date</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>datetime</t>
   </si>
   <si>
     <t>yotei_end_date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>yotei_kousuu</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> CONSTRAINT [PK_m_ankan_kinou_info] PRIMARY KEY CLUSTERED </t>
+  </si>
+  <si>
+    <t>CREATE TABLE [dbo].[m_ankan_pgm_info](</t>
   </si>
   <si>
     <t>pgm_name</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>pgm_level</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>kinou_kbn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pgm_demo_path</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pgm_santaku_flg</t>
+  </si>
+  <si>
+    <t>pgm_sinntyoku_retu</t>
   </si>
   <si>
     <t>pgm_last_upd_date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pgm_bunrui_cd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pgm_bunrui_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>m_list_info</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>pgm_staus</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>未着手、</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成中、</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日本側検証中</t>
-  </si>
-  <si>
-    <t>km_no</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>km_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>nvarchar(500)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>m_ankan_kihon_info</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CREATE TABLE [dbo].[m_ankan_kihon_info](</t>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-  </si>
-  <si>
-    <t>NOT NULL,</t>
-  </si>
-  <si>
-    <t>server_siryou_path</t>
-  </si>
-  <si>
-    <t>nvarchar(500)</t>
-  </si>
-  <si>
-    <t>NULL,</t>
-  </si>
-  <si>
-    <t>client_siryou_path</t>
-  </si>
-  <si>
-    <t>code_path1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CONSTRAINT [PK_m_ankan_kihon_info] PRIMARY KEY CLUSTERED </t>
-  </si>
-  <si>
-    <t>[edp_no] ASC</t>
-  </si>
-  <si>
-    <t>)WITH (PAD_INDEX  = OFF, STATISTICS_NORECOMPUTE  = OFF, IGNORE_DUP_KEY = OFF, ALLOW_ROW_LOCKS  = ON, ALLOW_PAGE_LOCKS  = ON) ON [PRIMARY]</t>
-  </si>
-  <si>
-    <t>[numeric](9, 0)</t>
-  </si>
-  <si>
-    <t>nvarchar(1)</t>
-  </si>
-  <si>
-    <t>nvarchar(1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CONSTRAINT [PK_m_ankan_pgm_info] PRIMARY KEY CLUSTERED </t>
+  </si>
+  <si>
+    <t>[edp_no] ASC,</t>
+  </si>
+  <si>
+    <t>kinou_no ASC</t>
+  </si>
+  <si>
+    <t>kinou_no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pgm_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[edp_no] ASC,kinou_no ASC,pgm_id ASC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m_ankan_pgm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pgm_santaku_flg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kinou_no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pgm_id</t>
+  </si>
+  <si>
+    <t>[edp_no] ASC,kinou_no ASC,pgm_id ASC</t>
+  </si>
+  <si>
+    <t>外部仕様設計</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内部仕様設計</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソース□</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pgm_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m_ankan_pgm_info</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>edp_no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pgm_sinntyoku_retu</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1199,118 +1310,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CREATE TABLE [dbo].[m_ankan_kinou_info](</t>
-  </si>
-  <si>
-    <t>kinou_no</t>
-  </si>
-  <si>
     <t>kinou_mei</t>
-  </si>
-  <si>
-    <t>kinou_kbn</t>
-  </si>
-  <si>
-    <t>yotei_kousuu</t>
-  </si>
-  <si>
-    <t>yotei_start_date</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>yotei_end_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CONSTRAINT [PK_m_ankan_kinou_info] PRIMARY KEY CLUSTERED </t>
-  </si>
-  <si>
-    <t>CREATE TABLE [dbo].[m_ankan_pgm_info](</t>
-  </si>
-  <si>
-    <t>pgm_name</t>
-  </si>
-  <si>
-    <t>pgm_level</t>
-  </si>
-  <si>
-    <t>pgm_santaku_flg</t>
-  </si>
-  <si>
-    <t>pgm_sinntyoku_retu</t>
-  </si>
-  <si>
-    <t>pgm_last_upd_date</t>
-  </si>
-  <si>
-    <t>pgm_staus</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CONSTRAINT [PK_m_ankan_pgm_info] PRIMARY KEY CLUSTERED </t>
-  </si>
-  <si>
-    <t>[edp_no] ASC,</t>
-  </si>
-  <si>
-    <t>kinou_no ASC</t>
-  </si>
-  <si>
-    <t>kinou_no</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pgm_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[edp_no] ASC,kinou_no ASC,pgm_id ASC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>m_ankan_pgm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pgm_santaku_flg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>kinou_no</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pgm_id</t>
-  </si>
-  <si>
-    <t>[edp_no] ASC,kinou_no ASC,pgm_id ASC</t>
-  </si>
-  <si>
-    <t>外部仕様設計</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>内部仕様設計</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ソース□</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pgm_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>m_ankan_pgm_info</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>edp_no</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pgm_sinntyoku_retu</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4456,8 +4456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:U130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -4487,10 +4487,10 @@
       <c r="H5" s="54"/>
       <c r="I5" s="56"/>
       <c r="J5" s="49" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P5" s="49" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="2:19" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -4512,19 +4512,19 @@
         <v>0</v>
       </c>
       <c r="L6" s="49" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M6" s="49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O6" s="49" t="s">
         <v>197</v>
       </c>
       <c r="Q6" s="49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S6" s="49" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="2:19" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -4542,16 +4542,16 @@
         <v>201</v>
       </c>
       <c r="L7" s="49" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M7" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q7" s="49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S7" s="49" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="2:19" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -4569,13 +4569,13 @@
         <v>202</v>
       </c>
       <c r="L8" s="49" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M8" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="S8" s="49" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="2:19" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -4593,10 +4593,10 @@
         <v>198</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M9" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="2:19" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -4614,10 +4614,10 @@
         <v>199</v>
       </c>
       <c r="L10" s="49" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M10" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="2:19" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -4633,10 +4633,10 @@
         <v>200</v>
       </c>
       <c r="L11" s="49" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M11" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="2:19" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -4649,7 +4649,7 @@
       <c r="H12" s="54"/>
       <c r="I12" s="56"/>
       <c r="J12" s="49" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="2:19" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -4671,13 +4671,13 @@
         <v>0</v>
       </c>
       <c r="L13" s="49" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M13" s="49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N13" s="49" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O13" s="49" t="s">
         <v>197</v>
@@ -4698,13 +4698,13 @@
         <v>152</v>
       </c>
       <c r="L14" s="49" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M14" s="49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N14" s="49" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O14" s="49" t="s">
         <v>197</v>
@@ -4720,16 +4720,16 @@
       <c r="H15" s="51"/>
       <c r="I15" s="58"/>
       <c r="K15" s="51" t="s">
-        <v>203</v>
+        <v>276</v>
       </c>
       <c r="L15" s="49" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M15" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N15" s="49" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.15">
@@ -4744,16 +4744,16 @@
       <c r="H16" s="51"/>
       <c r="I16" s="58"/>
       <c r="K16" s="51" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L16" s="49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M16" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N16" s="49" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.15">
@@ -4768,23 +4768,23 @@
       <c r="H17" s="51"/>
       <c r="I17" s="58"/>
       <c r="K17" s="49" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L17" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M17" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N17" s="49" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B18" s="57"/>
       <c r="C18" s="51"/>
       <c r="D18" s="51" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E18" s="51"/>
       <c r="F18" s="51"/>
@@ -4792,16 +4792,16 @@
       <c r="H18" s="51"/>
       <c r="I18" s="58"/>
       <c r="K18" s="49" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L18" s="49" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M18" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N18" s="49" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.15">
@@ -4820,23 +4820,23 @@
       <c r="H19" s="50"/>
       <c r="I19" s="58"/>
       <c r="K19" s="49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L19" s="49" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M19" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N19" s="49" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B20" s="57"/>
       <c r="C20" s="51"/>
       <c r="D20" s="51" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E20" s="51"/>
       <c r="F20" s="51"/>
@@ -4862,10 +4862,10 @@
       </c>
       <c r="I21" s="58"/>
       <c r="J21" s="49" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="P21" s="49" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.15">
@@ -4882,31 +4882,31 @@
       <c r="H22" s="51"/>
       <c r="I22" s="58"/>
       <c r="K22" s="49" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L22" s="49" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M22" s="49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N22" s="49" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O22" s="49" t="s">
         <v>197</v>
       </c>
       <c r="Q22" s="49" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R22" s="49" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="S22" s="49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T22" s="49" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="U22" s="49" t="s">
         <v>197</v>
@@ -4920,7 +4920,7 @@
         <v>157</v>
       </c>
       <c r="F23" s="50" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G23" s="50" t="s">
         <v>159</v>
@@ -4930,31 +4930,31 @@
       </c>
       <c r="I23" s="58"/>
       <c r="K23" s="51" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L23" s="49" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M23" s="49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N23" s="49" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O23" s="49" t="s">
         <v>197</v>
       </c>
       <c r="Q23" s="49" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R23" s="49" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S23" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T23" s="49" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="2:21" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -4969,31 +4969,31 @@
       <c r="H24" s="50"/>
       <c r="I24" s="58"/>
       <c r="K24" s="49" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L24" s="49" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M24" s="49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N24" s="49" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O24" s="49" t="s">
         <v>197</v>
       </c>
       <c r="Q24" s="49" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="R24" s="49" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="S24" s="49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T24" s="49" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="U24" s="49" t="s">
         <v>197</v>
@@ -5013,28 +5013,28 @@
       <c r="H25" s="50"/>
       <c r="I25" s="58"/>
       <c r="K25" s="49" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L25" s="49" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M25" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N25" s="49" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q25" s="49" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R25" s="49" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S25" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T25" s="49" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="2:21" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -5047,28 +5047,28 @@
       <c r="H26" s="50"/>
       <c r="I26" s="58"/>
       <c r="K26" s="49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L26" s="49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M26" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N26" s="49" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q26" s="49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="R26" s="49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S26" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T26" s="49" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="2:21" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -5083,28 +5083,28 @@
       </c>
       <c r="I27" s="58"/>
       <c r="K27" s="49" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L27" s="49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M27" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N27" s="49" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q27" s="49" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R27" s="49" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S27" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T27" s="49" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="2:21" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -5117,30 +5117,30 @@
       <c r="H28" s="60"/>
       <c r="I28" s="61"/>
       <c r="K28" s="49" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L28" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M28" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N28" s="49" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="2:21" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="K29" s="49" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L29" s="49" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M29" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N29" s="49" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="2:21" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -5155,16 +5155,16 @@
       <c r="G30" s="65"/>
       <c r="H30" s="66"/>
       <c r="K30" s="49" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L30" s="49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M30" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N30" s="49" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.15">
@@ -5376,7 +5376,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="49" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
@@ -5384,43 +5384,43 @@
         <v>0</v>
       </c>
       <c r="B59" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="C59" s="49" t="s">
         <v>227</v>
-      </c>
-      <c r="C59" s="49" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="B60" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="B60" s="49" t="s">
+      <c r="C60" s="49" t="s">
         <v>230</v>
-      </c>
-      <c r="C60" s="49" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="49" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B61" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="C61" s="49" t="s">
         <v>230</v>
-      </c>
-      <c r="C61" s="49" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="49" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B62" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="C62" s="49" t="s">
         <v>230</v>
-      </c>
-      <c r="C62" s="49" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -5428,10 +5428,10 @@
         <v>199</v>
       </c>
       <c r="B63" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="C63" s="49" t="s">
         <v>230</v>
-      </c>
-      <c r="C63" s="49" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
@@ -5439,15 +5439,15 @@
         <v>200</v>
       </c>
       <c r="B64" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="C64" s="49" t="s">
         <v>230</v>
-      </c>
-      <c r="C64" s="49" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="49" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
@@ -5457,12 +5457,12 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B67" s="49" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
@@ -5472,7 +5472,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="49" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
@@ -5480,102 +5480,102 @@
         <v>0</v>
       </c>
       <c r="B73" s="49" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C73" s="49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D73" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="49" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B74" s="49" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C74" s="49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D74" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="49" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B75" s="49" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C75" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D75" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="49" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B76" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C76" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D76" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="49" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B77" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C77" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D77" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="49" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B78" s="49" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C78" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="49" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B79" s="49" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C79" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D79" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="49" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
@@ -5585,17 +5585,17 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B83" s="49" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B84" s="49" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
@@ -5605,7 +5605,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="49" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
@@ -5613,130 +5613,130 @@
         <v>0</v>
       </c>
       <c r="B94" s="49" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C94" s="49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D94" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="49" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B95" s="49" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C95" s="49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D95" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="49" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B96" s="49" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C96" s="49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D96" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" s="49" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B97" s="49" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C97" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D97" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="49" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B98" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C98" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D98" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" s="49" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B99" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C99" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D99" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="49" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B100" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C100" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D100" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="49" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B101" s="49" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C101" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D101" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" s="49" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B102" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C102" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D102" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="49" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
@@ -5746,12 +5746,12 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B107" s="49" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" s="49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
@@ -5761,7 +5761,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" s="49" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
@@ -5769,130 +5769,130 @@
         <v>0</v>
       </c>
       <c r="B115" s="49" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C115" s="49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D115" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" s="49" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B116" s="49" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C116" s="49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D116" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" s="49" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B117" s="49" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C117" s="49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D117" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" s="49" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B118" s="49" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C118" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D118" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="49" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B119" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C119" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D119" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" s="49" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B120" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C120" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D120" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" s="49" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B121" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C121" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D121" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" s="49" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B122" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C122" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D122" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" s="49" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B123" s="49" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C123" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D123" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" s="49" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
@@ -5902,12 +5902,12 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B128" s="49" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A129" s="49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.15">

--- a/AutoDo/仕様.xlsx
+++ b/AutoDo/仕様.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="11205" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="11205" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="ER图" sheetId="5" r:id="rId5"/>
     <sheet name="案件进步" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="284">
   <si>
     <t>edp_no</t>
   </si>
@@ -1312,6 +1313,33 @@
   <si>
     <t>kinou_mei</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nvarchar(5000)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t_today_do</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品選定WF_WIN10対応検証依頼</t>
   </si>
 </sst>
 </file>
@@ -4456,8 +4484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:U130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView topLeftCell="G46" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -5374,12 +5402,32 @@
         <v>195</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="K57" s="49" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A58" s="49" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="L58" s="49" t="s">
+        <v>282</v>
+      </c>
+      <c r="M58" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="N58" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="O58" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="P58" s="49" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A59" s="49" t="s">
         <v>0</v>
       </c>
@@ -5389,8 +5437,23 @@
       <c r="C59" s="49" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="L59" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="M59" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="N59" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="O59" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="P59" s="49" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A60" s="49" t="s">
         <v>228</v>
       </c>
@@ -5400,8 +5463,23 @@
       <c r="C60" s="49" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="L60" s="49" t="s">
+        <v>278</v>
+      </c>
+      <c r="M60" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="N60" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="O60" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="P60" s="49" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A61" s="49" t="s">
         <v>231</v>
       </c>
@@ -5411,8 +5489,20 @@
       <c r="C61" s="49" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="L61" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="M61" s="49" t="s">
+        <v>280</v>
+      </c>
+      <c r="N61" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="O61" s="49" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A62" s="49" t="s">
         <v>232</v>
       </c>
@@ -5423,7 +5513,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A63" s="49" t="s">
         <v>199</v>
       </c>
@@ -5434,7 +5524,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A64" s="49" t="s">
         <v>200</v>
       </c>
@@ -5920,4 +6010,25 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="8" spans="5:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="E8" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AutoDo/仕様.xlsx
+++ b/AutoDo/仕様.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="11205" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="11205" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="ER图" sheetId="5" r:id="rId5"/>
     <sheet name="案件进步" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet5" sheetId="7" r:id="rId7"/>
+    <sheet name="代码库" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="289">
   <si>
     <t>edp_no</t>
   </si>
@@ -1341,12 +1342,45 @@
   <si>
     <t>商品選定WF_WIN10対応検証依頼</t>
   </si>
+  <si>
+    <r>
+      <t>循</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>环DATATABLE</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Next</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>For i as integer = 0 to dt.rows.count - 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dim i as integer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VB,JS</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1438,6 +1472,14 @@
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -4485,7 +4527,7 @@
   <dimension ref="A4:U130"/>
   <sheetViews>
     <sheetView topLeftCell="G46" workbookViewId="0">
-      <selection activeCell="K62" sqref="K62"/>
+      <selection activeCell="K91" sqref="K91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -6016,7 +6058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
@@ -6031,4 +6073,45 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D15" t="s">
+        <v>285</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AutoDo/仕様.xlsx
+++ b/AutoDo/仕様.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="11205" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="11205" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="案件进步" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet5" sheetId="7" r:id="rId7"/>
     <sheet name="代码库" sheetId="8" r:id="rId8"/>
+    <sheet name="数据导入机能" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="294">
   <si>
     <t>edp_no</t>
   </si>
@@ -1375,12 +1376,38 @@
     <t>VB,JS</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>TABLE NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明細</t>
+    <rPh sb="0" eb="2">
+      <t>メイサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明細TITLE</t>
+    <rPh sb="0" eb="2">
+      <t>メイサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>START</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>END</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1480,6 +1507,14 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1743,7 +1778,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1992,6 +2027,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6079,7 +6117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -6114,4 +6152,50 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D5:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="9" style="83"/>
+    <col min="4" max="4" width="14.25" style="83" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="83"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D5" s="83" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D6" s="83" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D7" s="83" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D8" s="83" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D15" s="83" t="s">
+        <v>293</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AutoDo/仕様.xlsx
+++ b/AutoDo/仕様.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\案件\AutoMakeCode\AutoCode\slnAC\AutoDo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="11205" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="11205" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,13 +21,14 @@
     <sheet name="Sheet5" sheetId="7" r:id="rId7"/>
     <sheet name="代码库" sheetId="8" r:id="rId8"/>
     <sheet name="数据导入机能" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet6" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="296">
   <si>
     <t>edp_no</t>
   </si>
@@ -1402,12 +1408,20 @@
     <t>END</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>EDP NO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YYMMDD</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1513,6 +1527,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic UI"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -1778,7 +1799,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2022,13 +2043,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2225,7 +2249,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2267,7 +2291,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2302,7 +2326,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2523,10 +2547,10 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="82"/>
+      <c r="E4" s="83"/>
       <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2643,10 +2667,10 @@
       <c r="R9" s="2"/>
     </row>
     <row r="10" spans="4:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="82"/>
+      <c r="E10" s="83"/>
       <c r="F10" s="1" t="s">
         <v>6</v>
       </c>
@@ -2896,6 +2920,34 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="84"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B4" s="84" t="s">
+        <v>294</v>
+      </c>
+      <c r="D4" s="84" t="s">
+        <v>295</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6158,39 +6210,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="9" style="83"/>
-    <col min="4" max="4" width="14.25" style="83" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="83"/>
+    <col min="1" max="3" width="9" style="81"/>
+    <col min="4" max="4" width="14.25" style="81" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="81"/>
   </cols>
   <sheetData>
     <row r="5" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="81" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="6" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D6" s="83" t="s">
+      <c r="D6" s="81" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="7" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D7" s="83" t="s">
+      <c r="D7" s="81" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="8" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="81" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="15" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D15" s="83" t="s">
+      <c r="D15" s="81" t="s">
         <v>293</v>
       </c>
     </row>
